--- a/SpaceX CRS-8/Excel/analysed.xlsx
+++ b/SpaceX CRS-8/Excel/analysed.xlsx
@@ -1618,19 +1618,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="n">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.277</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.635</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>10.6</v>
@@ -1642,12 +1642,12 @@
         <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04699648011605415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="n">
-        <v>1.033</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2.316</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="n">
-        <v>2.033</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3.455</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="n">
-        <v>3.033</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4.556</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="n">
-        <v>4.033</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>6.806</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="n">
-        <v>5.033</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>9.307</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="n">
-        <v>6.033</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>12.222</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="n">
-        <v>7.033</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>15.65</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="n">
-        <v>8.032999999999999</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>18.888</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="n">
-        <v>9.032999999999999</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>22.001</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="n">
-        <v>10.033</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>24.539</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="n">
-        <v>11.033</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>28.055</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="n">
-        <v>12.033</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>31.111</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="n">
-        <v>13.033</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>33.888</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="n">
-        <v>14.033</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>35.363</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="n">
-        <v>15.033</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>40.141</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="n">
-        <v>16.033</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>44.722</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="n">
-        <v>17.033</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>47.777</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="n">
-        <v>18.033</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>52.5</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="n">
-        <v>19.033</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>56.249</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="n">
-        <v>20.033</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>59.722</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="n">
-        <v>21.033</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>63.797</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="n">
-        <v>22.033</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>67.63800000000001</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="n">
-        <v>23.033</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>71.944</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="n">
-        <v>24.033</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>75.13800000000001</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="n">
-        <v>25.033</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>79.30500000000001</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="n">
-        <v>26.033</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
         <v>84.166</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="n">
-        <v>27.033</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
         <v>88.402</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="n">
-        <v>28.033</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>93.194</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="n">
-        <v>29.033</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>98.05500000000001</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="n">
-        <v>30.033</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>102.638</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="n">
-        <v>31.033</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>106.574</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="n">
-        <v>32.033</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>111.666</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="n">
-        <v>33.033</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>116.666</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="n">
-        <v>34.033</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>121.666</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="n">
-        <v>35.033</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>126.666</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="n">
-        <v>36.033</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>131.944</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="n">
-        <v>37.033</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>137.222</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="n">
-        <v>38.033</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
         <v>142.777</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="n">
-        <v>39.033</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>148.194</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="n">
-        <v>40.033</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
         <v>153.749</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="n">
-        <v>41.033</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
         <v>159.722</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="n">
-        <v>42.033</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>165.555</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="n">
-        <v>43.033</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
         <v>171.527</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="n">
-        <v>44.033</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
         <v>177.222</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="n">
-        <v>45.033</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
         <v>183.472</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="n">
-        <v>46.033</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>189.722</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="n">
-        <v>47.033</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>195.833</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="n">
-        <v>48.033</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
         <v>202.641</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="n">
-        <v>49.033</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>209.444</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="n">
-        <v>50.033</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
         <v>215.833</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="n">
-        <v>51.033</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
         <v>222.363</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="n">
-        <v>52.033</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
         <v>227.641</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="n">
-        <v>53.033</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
         <v>232.5</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="n">
-        <v>54.033</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
         <v>237.222</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="n">
-        <v>55.033</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
         <v>241.761</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="n">
-        <v>56.033</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
         <v>246.388</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="n">
-        <v>57.033</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
         <v>251.388</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="n">
-        <v>58.033</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
         <v>256.111</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="n">
-        <v>59.033</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
         <v>261.111</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="n">
-        <v>60.033</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
         <v>266.111</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="n">
-        <v>61.033</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
         <v>271.252</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="n">
-        <v>62.033</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
         <v>276.666</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="n">
-        <v>63.033</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
         <v>282.222</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="n">
-        <v>64.033</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
         <v>287.641</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="n">
-        <v>65.033</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
         <v>293.333</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="n">
-        <v>66.033</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
         <v>298.888</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="n">
-        <v>67.033</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
         <v>304.722</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="n">
-        <v>68.033</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
         <v>310.277</v>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="n">
-        <v>69.033</v>
+        <v>69</v>
       </c>
       <c r="B71" t="n">
         <v>316.666</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="n">
-        <v>70.033</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
         <v>322.777</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="n">
-        <v>71.033</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
         <v>328.611</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="n">
-        <v>72.033</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
         <v>335.833</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="n">
-        <v>73.033</v>
+        <v>73</v>
       </c>
       <c r="B75" t="n">
         <v>342.222</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="n">
-        <v>74.033</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
         <v>348.333</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="n">
-        <v>75.033</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
         <v>355.277</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="n">
-        <v>76.033</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
         <v>362.222</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="n">
-        <v>77.033</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
         <v>369.029</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="n">
-        <v>78.033</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
         <v>376.388</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="n">
-        <v>79.033</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
         <v>383.474</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="n">
-        <v>80.033</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
         <v>391.111</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="n">
-        <v>81.033</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
         <v>398.888</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="n">
-        <v>82.033</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
         <v>407.222</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="n">
-        <v>83.033</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
         <v>416.111</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="n">
-        <v>84.033</v>
+        <v>84</v>
       </c>
       <c r="B86" t="n">
         <v>426.944</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="n">
-        <v>85.033</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
         <v>437.777</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="n">
-        <v>86.033</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
         <v>448.611</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="n">
-        <v>87.033</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
         <v>460.555</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="n">
-        <v>88.033</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
         <v>472.222</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="n">
-        <v>89.033</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
         <v>485.277</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="n">
-        <v>90.033</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
         <v>497.222</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="n">
-        <v>91.033</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
         <v>509.722</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="n">
-        <v>92.033</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
         <v>523.054</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="n">
-        <v>93.033</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
         <v>535.5549999999999</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="n">
-        <v>94.033</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
         <v>548.888</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="n">
-        <v>95.033</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
         <v>562.777</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="n">
-        <v>96.033</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
         <v>575.833</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="n">
-        <v>97.033</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
         <v>590</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="n">
-        <v>98.033</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
         <v>604.722</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="n">
-        <v>99.033</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
         <v>618.888</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="n">
-        <v>100.033</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
         <v>632.777</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="n">
-        <v>101.033</v>
+        <v>101</v>
       </c>
       <c r="B103" t="n">
         <v>648.059</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="n">
-        <v>102.033</v>
+        <v>102</v>
       </c>
       <c r="B104" t="n">
         <v>663.0549999999999</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="n">
-        <v>103.033</v>
+        <v>103</v>
       </c>
       <c r="B105" t="n">
         <v>678.333</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="n">
-        <v>104.033</v>
+        <v>104</v>
       </c>
       <c r="B106" t="n">
         <v>692.5</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="n">
-        <v>105.033</v>
+        <v>105</v>
       </c>
       <c r="B107" t="n">
         <v>709.722</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="n">
-        <v>106.033</v>
+        <v>106</v>
       </c>
       <c r="B108" t="n">
         <v>725.5549999999999</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="n">
-        <v>107.033</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
         <v>741.6660000000001</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="n">
-        <v>108.033</v>
+        <v>108</v>
       </c>
       <c r="B110" t="n">
         <v>758.888</v>
@@ -4779,7 +4779,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="n">
-        <v>109.033</v>
+        <v>109</v>
       </c>
       <c r="B111" t="n">
         <v>775.5549999999999</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="n">
-        <v>110.033</v>
+        <v>110</v>
       </c>
       <c r="B112" t="n">
         <v>792.5</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="n">
-        <v>111.033</v>
+        <v>111</v>
       </c>
       <c r="B113" t="n">
         <v>809.444</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="n">
-        <v>112.033</v>
+        <v>112</v>
       </c>
       <c r="B114" t="n">
         <v>827.222</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="n">
-        <v>113.033</v>
+        <v>113</v>
       </c>
       <c r="B115" t="n">
         <v>845</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="n">
-        <v>114.033</v>
+        <v>114</v>
       </c>
       <c r="B116" t="n">
         <v>863.611</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="n">
-        <v>115.033</v>
+        <v>115</v>
       </c>
       <c r="B117" t="n">
         <v>881.6660000000001</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="n">
-        <v>116.033</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
         <v>900.427</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="n">
-        <v>117.033</v>
+        <v>117</v>
       </c>
       <c r="B119" t="n">
         <v>919.722</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="n">
-        <v>118.033</v>
+        <v>118</v>
       </c>
       <c r="B120" t="n">
         <v>939.444</v>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="n">
-        <v>119.033</v>
+        <v>119</v>
       </c>
       <c r="B121" t="n">
         <v>959.1660000000001</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="n">
-        <v>120.033</v>
+        <v>120</v>
       </c>
       <c r="B122" t="n">
         <v>979.1660000000001</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="n">
-        <v>121.033</v>
+        <v>121</v>
       </c>
       <c r="B123" t="n">
         <v>998.611</v>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="n">
-        <v>122.033</v>
+        <v>122</v>
       </c>
       <c r="B124" t="n">
         <v>1019.722</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="n">
-        <v>123.033</v>
+        <v>123</v>
       </c>
       <c r="B125" t="n">
         <v>1040</v>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="n">
-        <v>124.033</v>
+        <v>124</v>
       </c>
       <c r="B126" t="n">
         <v>1061.388</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="n">
-        <v>125.033</v>
+        <v>125</v>
       </c>
       <c r="B127" t="n">
         <v>1084.166</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="n">
-        <v>126.033</v>
+        <v>126</v>
       </c>
       <c r="B128" t="n">
         <v>1104.722</v>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="n">
-        <v>127.033</v>
+        <v>127</v>
       </c>
       <c r="B129" t="n">
         <v>1127.222</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="n">
-        <v>128.033</v>
+        <v>128</v>
       </c>
       <c r="B130" t="n">
         <v>1150.555</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="n">
-        <v>129.033</v>
+        <v>129</v>
       </c>
       <c r="B131" t="n">
         <v>1173.055</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="n">
-        <v>130.033</v>
+        <v>130</v>
       </c>
       <c r="B132" t="n">
         <v>1196.388</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="n">
-        <v>131.033</v>
+        <v>131</v>
       </c>
       <c r="B133" t="n">
         <v>1219.722</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="n">
-        <v>132.033</v>
+        <v>132</v>
       </c>
       <c r="B134" t="n">
         <v>1243.333</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="n">
-        <v>133.033</v>
+        <v>133</v>
       </c>
       <c r="B135" t="n">
         <v>1267.222</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="n">
-        <v>134.033</v>
+        <v>134</v>
       </c>
       <c r="B136" t="n">
         <v>1291.666</v>
@@ -5533,7 +5533,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="n">
-        <v>135.033</v>
+        <v>135</v>
       </c>
       <c r="B137" t="n">
         <v>1315.555</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="n">
-        <v>136.033</v>
+        <v>136</v>
       </c>
       <c r="B138" t="n">
         <v>1340.277</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="n">
-        <v>137.033</v>
+        <v>137</v>
       </c>
       <c r="B139" t="n">
         <v>1365</v>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="n">
-        <v>138.033</v>
+        <v>138</v>
       </c>
       <c r="B140" t="n">
         <v>1392.222</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="n">
-        <v>139.033</v>
+        <v>139</v>
       </c>
       <c r="B141" t="n">
         <v>1418.055</v>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="n">
-        <v>140.033</v>
+        <v>140</v>
       </c>
       <c r="B142" t="n">
         <v>1445.277</v>
@@ -5707,7 +5707,7 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="n">
-        <v>141.033</v>
+        <v>141</v>
       </c>
       <c r="B143" t="n">
         <v>1471.666</v>
@@ -5736,7 +5736,7 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="n">
-        <v>142.033</v>
+        <v>142</v>
       </c>
       <c r="B144" t="n">
         <v>1499.166</v>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="n">
-        <v>143.033</v>
+        <v>143</v>
       </c>
       <c r="B145" t="n">
         <v>1527.777</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="n">
-        <v>144.033</v>
+        <v>144</v>
       </c>
       <c r="B146" t="n">
         <v>1556.111</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="n">
-        <v>145.033</v>
+        <v>145</v>
       </c>
       <c r="B147" t="n">
         <v>1584.722</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="n">
-        <v>146.033</v>
+        <v>146</v>
       </c>
       <c r="B148" t="n">
         <v>1615.277</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="n">
-        <v>147.033</v>
+        <v>147</v>
       </c>
       <c r="B149" t="n">
         <v>1646.111</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="n">
-        <v>148.033</v>
+        <v>148</v>
       </c>
       <c r="B150" t="n">
         <v>1676.111</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="n">
-        <v>149.033</v>
+        <v>149</v>
       </c>
       <c r="B151" t="n">
         <v>1705</v>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="n">
-        <v>150.033</v>
+        <v>150</v>
       </c>
       <c r="B152" t="n">
         <v>1740.277</v>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="n">
-        <v>151.033</v>
+        <v>151</v>
       </c>
       <c r="B153" t="n">
         <v>1771.666</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="n">
-        <v>152.033</v>
+        <v>152</v>
       </c>
       <c r="B154" t="n">
         <v>1800.277</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="n">
-        <v>153.033</v>
+        <v>153</v>
       </c>
       <c r="B155" t="n">
         <v>1831.944</v>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="n">
-        <v>154.033</v>
+        <v>154</v>
       </c>
       <c r="B156" t="n">
         <v>1848.474</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="n">
-        <v>155.033</v>
+        <v>155</v>
       </c>
       <c r="B157" t="n">
         <v>1848.147</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="n">
-        <v>156.033</v>
+        <v>156</v>
       </c>
       <c r="B158" t="n">
         <v>1843.47</v>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="n">
-        <v>157.033</v>
+        <v>157</v>
       </c>
       <c r="B159" t="n">
         <v>1838.747</v>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="n">
-        <v>158.033</v>
+        <v>158</v>
       </c>
       <c r="B160" t="n">
         <v>1833.606</v>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="n">
-        <v>159.033</v>
+        <v>159</v>
       </c>
       <c r="B161" t="n">
         <v>1827.5</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="n">
-        <v>160.033</v>
+        <v>160</v>
       </c>
       <c r="B162" t="n">
         <v>1821.758</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="n">
-        <v>161.033</v>
+        <v>161</v>
       </c>
       <c r="B163" t="n">
         <v>1815.833</v>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="n">
-        <v>162.033</v>
+        <v>162</v>
       </c>
       <c r="B164" t="n">
         <v>1810.277</v>
@@ -6345,7 +6345,7 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="n">
-        <v>163.033</v>
+        <v>163</v>
       </c>
       <c r="B165" t="n">
         <v>1804.581</v>
@@ -6374,7 +6374,7 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="n">
-        <v>164.033</v>
+        <v>164</v>
       </c>
       <c r="B166" t="n">
         <v>1799.166</v>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="n">
-        <v>165.033</v>
+        <v>165</v>
       </c>
       <c r="B167" t="n">
         <v>1797.954</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="n">
-        <v>166.033</v>
+        <v>166</v>
       </c>
       <c r="B168" t="n">
         <v>1798.75</v>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="n">
-        <v>167.033</v>
+        <v>167</v>
       </c>
       <c r="B169" t="n">
         <v>1800.348</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="n">
-        <v>168.033</v>
+        <v>168</v>
       </c>
       <c r="B170" t="n">
         <v>1802.056</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="n">
-        <v>169.033</v>
+        <v>169</v>
       </c>
       <c r="B171" t="n">
         <v>1804.333</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="n">
-        <v>170.033</v>
+        <v>170</v>
       </c>
       <c r="B172" t="n">
         <v>1806.388</v>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="n">
-        <v>171.033</v>
+        <v>171</v>
       </c>
       <c r="B173" t="n">
         <v>1808.542</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="n">
-        <v>172.033</v>
+        <v>172</v>
       </c>
       <c r="B174" t="n">
         <v>1810.764</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="n">
-        <v>173.033</v>
+        <v>173</v>
       </c>
       <c r="B175" t="n">
         <v>1813.055</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="n">
-        <v>174.033</v>
+        <v>174</v>
       </c>
       <c r="B176" t="n">
         <v>1815.463</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="n">
-        <v>175.033</v>
+        <v>175</v>
       </c>
       <c r="B177" t="n">
         <v>1817.917</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="n">
-        <v>176.033</v>
+        <v>176</v>
       </c>
       <c r="B178" t="n">
         <v>1820.277</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="n">
-        <v>177.033</v>
+        <v>177</v>
       </c>
       <c r="B179" t="n">
         <v>1822.872</v>
@@ -6780,7 +6780,7 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="n">
-        <v>178.033</v>
+        <v>178</v>
       </c>
       <c r="B180" t="n">
         <v>1825.348</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="n">
-        <v>179.033</v>
+        <v>179</v>
       </c>
       <c r="B181" t="n">
         <v>1827.963</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="n">
-        <v>180.033</v>
+        <v>180</v>
       </c>
       <c r="B182" t="n">
         <v>1830.463</v>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="n">
-        <v>181.033</v>
+        <v>181</v>
       </c>
       <c r="B183" t="n">
         <v>1833.195</v>
@@ -6896,7 +6896,7 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="n">
-        <v>182.033</v>
+        <v>182</v>
       </c>
       <c r="B184" t="n">
         <v>1835.833</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="n">
-        <v>183.033</v>
+        <v>183</v>
       </c>
       <c r="B185" t="n">
         <v>1838.611</v>
@@ -6954,7 +6954,7 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="n">
-        <v>184.033</v>
+        <v>184</v>
       </c>
       <c r="B186" t="n">
         <v>1841.459</v>
@@ -6983,7 +6983,7 @@
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="n">
-        <v>185.033</v>
+        <v>185</v>
       </c>
       <c r="B187" t="n">
         <v>1844.352</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="n">
-        <v>186.033</v>
+        <v>186</v>
       </c>
       <c r="B188" t="n">
         <v>1847.13</v>
@@ -7041,7 +7041,7 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="n">
-        <v>187.033</v>
+        <v>187</v>
       </c>
       <c r="B189" t="n">
         <v>1850</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="n">
-        <v>188.033</v>
+        <v>188</v>
       </c>
       <c r="B190" t="n">
         <v>1852.777</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="n">
-        <v>189.033</v>
+        <v>189</v>
       </c>
       <c r="B191" t="n">
         <v>1855.928</v>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="n">
-        <v>190.033</v>
+        <v>190</v>
       </c>
       <c r="B192" t="n">
         <v>1858.983</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="n">
-        <v>191.033</v>
+        <v>191</v>
       </c>
       <c r="B193" t="n">
         <v>1862.039</v>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="n">
-        <v>192.033</v>
+        <v>192</v>
       </c>
       <c r="B194" t="n">
         <v>1865</v>
@@ -7215,7 +7215,7 @@
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="n">
-        <v>193.033</v>
+        <v>193</v>
       </c>
       <c r="B195" t="n">
         <v>1868.241</v>
@@ -7244,7 +7244,7 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="n">
-        <v>194.033</v>
+        <v>194</v>
       </c>
       <c r="B196" t="n">
         <v>1871.252</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="n">
-        <v>195.033</v>
+        <v>195</v>
       </c>
       <c r="B197" t="n">
         <v>1874.444</v>
@@ -7302,7 +7302,7 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="n">
-        <v>196.033</v>
+        <v>196</v>
       </c>
       <c r="B198" t="n">
         <v>1877.686</v>
@@ -7331,7 +7331,7 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="n">
-        <v>197.033</v>
+        <v>197</v>
       </c>
       <c r="B199" t="n">
         <v>1881.019</v>
@@ -7360,7 +7360,7 @@
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="n">
-        <v>198.033</v>
+        <v>198</v>
       </c>
       <c r="B200" t="n">
         <v>1884.352</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="n">
-        <v>199.033</v>
+        <v>199</v>
       </c>
       <c r="B201" t="n">
         <v>1887.777</v>
@@ -7418,7 +7418,7 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="n">
-        <v>200.033</v>
+        <v>200</v>
       </c>
       <c r="B202" t="n">
         <v>1891.111</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="n">
-        <v>201.033</v>
+        <v>201</v>
       </c>
       <c r="B203" t="n">
         <v>1894.306</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="n">
-        <v>202.033</v>
+        <v>202</v>
       </c>
       <c r="B204" t="n">
         <v>1897.317</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="n">
-        <v>203.033</v>
+        <v>203</v>
       </c>
       <c r="B205" t="n">
         <v>1900.833</v>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="n">
-        <v>204.033</v>
+        <v>204</v>
       </c>
       <c r="B206" t="n">
         <v>1904.539</v>
@@ -7563,7 +7563,7 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="n">
-        <v>205.033</v>
+        <v>205</v>
       </c>
       <c r="B207" t="n">
         <v>1907.918</v>
@@ -7592,7 +7592,7 @@
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="n">
-        <v>206.033</v>
+        <v>206</v>
       </c>
       <c r="B208" t="n">
         <v>1911.252</v>
@@ -7621,7 +7621,7 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="n">
-        <v>207.033</v>
+        <v>207</v>
       </c>
       <c r="B209" t="n">
         <v>1915</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="n">
-        <v>208.033</v>
+        <v>208</v>
       </c>
       <c r="B210" t="n">
         <v>1918.752</v>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="n">
-        <v>209.033</v>
+        <v>209</v>
       </c>
       <c r="B211" t="n">
         <v>1922.363</v>
@@ -7708,7 +7708,7 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="n">
-        <v>210.033</v>
+        <v>210</v>
       </c>
       <c r="B212" t="n">
         <v>1926.111</v>
@@ -7737,7 +7737,7 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="n">
-        <v>211.033</v>
+        <v>211</v>
       </c>
       <c r="B213" t="n">
         <v>1930</v>
@@ -7766,7 +7766,7 @@
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="n">
-        <v>212.033</v>
+        <v>212</v>
       </c>
       <c r="B214" t="n">
         <v>1933.752</v>
@@ -7795,7 +7795,7 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="n">
-        <v>213.033</v>
+        <v>213</v>
       </c>
       <c r="B215" t="n">
         <v>1937.363</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="n">
-        <v>214.033</v>
+        <v>214</v>
       </c>
       <c r="B216" t="n">
         <v>1941.297</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="n">
-        <v>215.033</v>
+        <v>215</v>
       </c>
       <c r="B217" t="n">
         <v>1945.141</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="n">
-        <v>216.033</v>
+        <v>216</v>
       </c>
       <c r="B218" t="n">
         <v>1949.028</v>
@@ -7911,7 +7911,7 @@
     </row>
     <row r="219" spans="1:9">
       <c r="A219" t="n">
-        <v>217.033</v>
+        <v>217</v>
       </c>
       <c r="B219" t="n">
         <v>1953.15</v>
@@ -7940,7 +7940,7 @@
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="n">
-        <v>218.033</v>
+        <v>218</v>
       </c>
       <c r="B220" t="n">
         <v>1957.363</v>
@@ -7969,7 +7969,7 @@
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="n">
-        <v>219.033</v>
+        <v>219</v>
       </c>
       <c r="B221" t="n">
         <v>1961.529</v>
@@ -7998,7 +7998,7 @@
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="n">
-        <v>220.033</v>
+        <v>220</v>
       </c>
       <c r="B222" t="n">
         <v>1965.696</v>
@@ -8027,7 +8027,7 @@
     </row>
     <row r="223" spans="1:9">
       <c r="A223" t="n">
-        <v>221.033</v>
+        <v>221</v>
       </c>
       <c r="B223" t="n">
         <v>1969.722</v>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="n">
-        <v>222.033</v>
+        <v>222</v>
       </c>
       <c r="B224" t="n">
         <v>1974.029</v>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="225" spans="1:9">
       <c r="A225" t="n">
-        <v>223.033</v>
+        <v>223</v>
       </c>
       <c r="B225" t="n">
         <v>1978.333</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="226" spans="1:9">
       <c r="A226" t="n">
-        <v>224.033</v>
+        <v>224</v>
       </c>
       <c r="B226" t="n">
         <v>1982.408</v>
@@ -8143,7 +8143,7 @@
     </row>
     <row r="227" spans="1:9">
       <c r="A227" t="n">
-        <v>225.033</v>
+        <v>225</v>
       </c>
       <c r="B227" t="n">
         <v>1987.085</v>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="228" spans="1:9">
       <c r="A228" t="n">
-        <v>226.033</v>
+        <v>226</v>
       </c>
       <c r="B228" t="n">
         <v>1991.388</v>
@@ -8201,7 +8201,7 @@
     </row>
     <row r="229" spans="1:9">
       <c r="A229" t="n">
-        <v>227.033</v>
+        <v>227</v>
       </c>
       <c r="B229" t="n">
         <v>1996.111</v>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="230" spans="1:9">
       <c r="A230" t="n">
-        <v>228.033</v>
+        <v>228</v>
       </c>
       <c r="B230" t="n">
         <v>2000.418</v>
@@ -8259,7 +8259,7 @@
     </row>
     <row r="231" spans="1:9">
       <c r="A231" t="n">
-        <v>229.033</v>
+        <v>229</v>
       </c>
       <c r="B231" t="n">
         <v>2005</v>
@@ -8288,7 +8288,7 @@
     </row>
     <row r="232" spans="1:9">
       <c r="A232" t="n">
-        <v>230.033</v>
+        <v>230</v>
       </c>
       <c r="B232" t="n">
         <v>2009.722</v>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="233" spans="1:9">
       <c r="A233" t="n">
-        <v>231.033</v>
+        <v>231</v>
       </c>
       <c r="B233" t="n">
         <v>2014.444</v>
@@ -8346,7 +8346,7 @@
     </row>
     <row r="234" spans="1:9">
       <c r="A234" t="n">
-        <v>232.033</v>
+        <v>232</v>
       </c>
       <c r="B234" t="n">
         <v>2019.166</v>
@@ -8375,7 +8375,7 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="n">
-        <v>233.033</v>
+        <v>233</v>
       </c>
       <c r="B235" t="n">
         <v>2024.166</v>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="n">
-        <v>234.033</v>
+        <v>234</v>
       </c>
       <c r="B236" t="n">
         <v>2028.752</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="237" spans="1:9">
       <c r="A237" t="n">
-        <v>235.033</v>
+        <v>235</v>
       </c>
       <c r="B237" t="n">
         <v>2033.611</v>
@@ -8462,7 +8462,7 @@
     </row>
     <row r="238" spans="1:9">
       <c r="A238" t="n">
-        <v>236.033</v>
+        <v>236</v>
       </c>
       <c r="B238" t="n">
         <v>2038.196</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="239" spans="1:9">
       <c r="A239" t="n">
-        <v>237.033</v>
+        <v>237</v>
       </c>
       <c r="B239" t="n">
         <v>2043.333</v>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="240" spans="1:9">
       <c r="A240" t="n">
-        <v>238.033</v>
+        <v>238</v>
       </c>
       <c r="B240" t="n">
         <v>2048.054</v>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="241" spans="1:9">
       <c r="A241" t="n">
-        <v>239.033</v>
+        <v>239</v>
       </c>
       <c r="B241" t="n">
         <v>2053.054</v>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="242" spans="1:9">
       <c r="A242" t="n">
-        <v>240.033</v>
+        <v>240</v>
       </c>
       <c r="B242" t="n">
         <v>2058.333</v>
@@ -8607,7 +8607,7 @@
     </row>
     <row r="243" spans="1:9">
       <c r="A243" t="n">
-        <v>241.033</v>
+        <v>241</v>
       </c>
       <c r="B243" t="n">
         <v>2063.474</v>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="244" spans="1:9">
       <c r="A244" t="n">
-        <v>242.033</v>
+        <v>242</v>
       </c>
       <c r="B244" t="n">
         <v>2068.61</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="245" spans="1:9">
       <c r="A245" t="n">
-        <v>243.033</v>
+        <v>243</v>
       </c>
       <c r="B245" t="n">
         <v>2073.888</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="246" spans="1:9">
       <c r="A246" t="n">
-        <v>244.033</v>
+        <v>244</v>
       </c>
       <c r="B246" t="n">
         <v>2079.029</v>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="n">
-        <v>245.033</v>
+        <v>245</v>
       </c>
       <c r="B247" t="n">
         <v>2084.307</v>
@@ -8752,7 +8752,7 @@
     </row>
     <row r="248" spans="1:9">
       <c r="A248" t="n">
-        <v>246.033</v>
+        <v>246</v>
       </c>
       <c r="B248" t="n">
         <v>2090</v>
@@ -8781,7 +8781,7 @@
     </row>
     <row r="249" spans="1:9">
       <c r="A249" t="n">
-        <v>247.033</v>
+        <v>247</v>
       </c>
       <c r="B249" t="n">
         <v>2095.056</v>
@@ -8810,7 +8810,7 @@
     </row>
     <row r="250" spans="1:9">
       <c r="A250" t="n">
-        <v>248.033</v>
+        <v>248</v>
       </c>
       <c r="B250" t="n">
         <v>2100.696</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="251" spans="1:9">
       <c r="A251" t="n">
-        <v>249.033</v>
+        <v>249</v>
       </c>
       <c r="B251" t="n">
         <v>2106.111</v>
@@ -8868,7 +8868,7 @@
     </row>
     <row r="252" spans="1:9">
       <c r="A252" t="n">
-        <v>250.033</v>
+        <v>250</v>
       </c>
       <c r="B252" t="n">
         <v>2111.529</v>
@@ -8897,7 +8897,7 @@
     </row>
     <row r="253" spans="1:9">
       <c r="A253" t="n">
-        <v>251.033</v>
+        <v>251</v>
       </c>
       <c r="B253" t="n">
         <v>2117.222</v>
@@ -8926,7 +8926,7 @@
     </row>
     <row r="254" spans="1:9">
       <c r="A254" t="n">
-        <v>252.033</v>
+        <v>252</v>
       </c>
       <c r="B254" t="n">
         <v>2123.333</v>
@@ -8955,7 +8955,7 @@
     </row>
     <row r="255" spans="1:9">
       <c r="A255" t="n">
-        <v>253.033</v>
+        <v>253</v>
       </c>
       <c r="B255" t="n">
         <v>2128.333</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="256" spans="1:9">
       <c r="A256" t="n">
-        <v>254.033</v>
+        <v>254</v>
       </c>
       <c r="B256" t="n">
         <v>2134.444</v>
@@ -9013,7 +9013,7 @@
     </row>
     <row r="257" spans="1:9">
       <c r="A257" t="n">
-        <v>255.033</v>
+        <v>255</v>
       </c>
       <c r="B257" t="n">
         <v>2140.277</v>
@@ -9042,7 +9042,7 @@
     </row>
     <row r="258" spans="1:9">
       <c r="A258" t="n">
-        <v>256.033</v>
+        <v>256</v>
       </c>
       <c r="B258" t="n">
         <v>2146.111</v>
@@ -9071,7 +9071,7 @@
     </row>
     <row r="259" spans="1:9">
       <c r="A259" t="n">
-        <v>257.033</v>
+        <v>257</v>
       </c>
       <c r="B259" t="n">
         <v>2152.085</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="260" spans="1:9">
       <c r="A260" t="n">
-        <v>258.033</v>
+        <v>258</v>
       </c>
       <c r="B260" t="n">
         <v>2157.918</v>
@@ -9129,7 +9129,7 @@
     </row>
     <row r="261" spans="1:9">
       <c r="A261" t="n">
-        <v>259.033</v>
+        <v>259</v>
       </c>
       <c r="B261" t="n">
         <v>2163.752</v>
@@ -9158,7 +9158,7 @@
     </row>
     <row r="262" spans="1:9">
       <c r="A262" t="n">
-        <v>260.033</v>
+        <v>260</v>
       </c>
       <c r="B262" t="n">
         <v>2169.722</v>
@@ -9187,7 +9187,7 @@
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="n">
-        <v>261.033</v>
+        <v>261</v>
       </c>
       <c r="B263" t="n">
         <v>2175.833</v>
@@ -9216,7 +9216,7 @@
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="n">
-        <v>262.033</v>
+        <v>262</v>
       </c>
       <c r="B264" t="n">
         <v>2181.944</v>
@@ -9245,7 +9245,7 @@
     </row>
     <row r="265" spans="1:9">
       <c r="A265" t="n">
-        <v>263.033</v>
+        <v>263</v>
       </c>
       <c r="B265" t="n">
         <v>2187.777</v>
@@ -9274,7 +9274,7 @@
     </row>
     <row r="266" spans="1:9">
       <c r="A266" t="n">
-        <v>264.033</v>
+        <v>264</v>
       </c>
       <c r="B266" t="n">
         <v>2194.444</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="267" spans="1:9">
       <c r="A267" t="n">
-        <v>265.033</v>
+        <v>265</v>
       </c>
       <c r="B267" t="n">
         <v>2200.555</v>
@@ -9332,7 +9332,7 @@
     </row>
     <row r="268" spans="1:9">
       <c r="A268" t="n">
-        <v>266.033</v>
+        <v>266</v>
       </c>
       <c r="B268" t="n">
         <v>2206.666</v>
@@ -9361,7 +9361,7 @@
     </row>
     <row r="269" spans="1:9">
       <c r="A269" t="n">
-        <v>267.033</v>
+        <v>267</v>
       </c>
       <c r="B269" t="n">
         <v>2213.06</v>
@@ -9390,7 +9390,7 @@
     </row>
     <row r="270" spans="1:9">
       <c r="A270" t="n">
-        <v>268.033</v>
+        <v>268</v>
       </c>
       <c r="B270" t="n">
         <v>2219.355</v>
@@ -9419,7 +9419,7 @@
     </row>
     <row r="271" spans="1:9">
       <c r="A271" t="n">
-        <v>269.033</v>
+        <v>269</v>
       </c>
       <c r="B271" t="n">
         <v>2224.863</v>
@@ -9448,7 +9448,7 @@
     </row>
     <row r="272" spans="1:9">
       <c r="A272" t="n">
-        <v>270.033</v>
+        <v>270</v>
       </c>
       <c r="B272" t="n">
         <v>2231.807</v>
@@ -9477,7 +9477,7 @@
     </row>
     <row r="273" spans="1:9">
       <c r="A273" t="n">
-        <v>271.033</v>
+        <v>271</v>
       </c>
       <c r="B273" t="n">
         <v>2238.474</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="274" spans="1:9">
       <c r="A274" t="n">
-        <v>272.033</v>
+        <v>272</v>
       </c>
       <c r="B274" t="n">
         <v>2244.861</v>
@@ -9535,7 +9535,7 @@
     </row>
     <row r="275" spans="1:9">
       <c r="A275" t="n">
-        <v>273.033</v>
+        <v>273</v>
       </c>
       <c r="B275" t="n">
         <v>2251.666</v>
@@ -9564,7 +9564,7 @@
     </row>
     <row r="276" spans="1:9">
       <c r="A276" t="n">
-        <v>274.033</v>
+        <v>274</v>
       </c>
       <c r="B276" t="n">
         <v>2258.055</v>
@@ -9593,7 +9593,7 @@
     </row>
     <row r="277" spans="1:9">
       <c r="A277" t="n">
-        <v>275.033</v>
+        <v>275</v>
       </c>
       <c r="B277" t="n">
         <v>2264.722</v>
@@ -9622,7 +9622,7 @@
     </row>
     <row r="278" spans="1:9">
       <c r="A278" t="n">
-        <v>276.033</v>
+        <v>276</v>
       </c>
       <c r="B278" t="n">
         <v>2271.388</v>
@@ -9651,7 +9651,7 @@
     </row>
     <row r="279" spans="1:9">
       <c r="A279" t="n">
-        <v>277.033</v>
+        <v>277</v>
       </c>
       <c r="B279" t="n">
         <v>2278.333</v>
@@ -9680,7 +9680,7 @@
     </row>
     <row r="280" spans="1:9">
       <c r="A280" t="n">
-        <v>278.033</v>
+        <v>278</v>
       </c>
       <c r="B280" t="n">
         <v>2285</v>
@@ -9709,7 +9709,7 @@
     </row>
     <row r="281" spans="1:9">
       <c r="A281" t="n">
-        <v>279.033</v>
+        <v>279</v>
       </c>
       <c r="B281" t="n">
         <v>2291.944</v>
@@ -9738,7 +9738,7 @@
     </row>
     <row r="282" spans="1:9">
       <c r="A282" t="n">
-        <v>280.033</v>
+        <v>280</v>
       </c>
       <c r="B282" t="n">
         <v>2299.027</v>
@@ -9767,7 +9767,7 @@
     </row>
     <row r="283" spans="1:9">
       <c r="A283" t="n">
-        <v>281.033</v>
+        <v>281</v>
       </c>
       <c r="B283" t="n">
         <v>2305.833</v>
@@ -9796,7 +9796,7 @@
     </row>
     <row r="284" spans="1:9">
       <c r="A284" t="n">
-        <v>282.033</v>
+        <v>282</v>
       </c>
       <c r="B284" t="n">
         <v>2312.777</v>
@@ -9825,7 +9825,7 @@
     </row>
     <row r="285" spans="1:9">
       <c r="A285" t="n">
-        <v>283.033</v>
+        <v>283</v>
       </c>
       <c r="B285" t="n">
         <v>2319.722</v>
@@ -9854,7 +9854,7 @@
     </row>
     <row r="286" spans="1:9">
       <c r="A286" t="n">
-        <v>284.033</v>
+        <v>284</v>
       </c>
       <c r="B286" t="n">
         <v>2326.666</v>
@@ -9883,7 +9883,7 @@
     </row>
     <row r="287" spans="1:9">
       <c r="A287" t="n">
-        <v>285.033</v>
+        <v>285</v>
       </c>
       <c r="B287" t="n">
         <v>2333.194</v>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="288" spans="1:9">
       <c r="A288" t="n">
-        <v>286.033</v>
+        <v>286</v>
       </c>
       <c r="B288" t="n">
         <v>2339.305</v>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="289" spans="1:9">
       <c r="A289" t="n">
-        <v>287.033</v>
+        <v>287</v>
       </c>
       <c r="B289" t="n">
         <v>2345.555</v>
@@ -9970,7 +9970,7 @@
     </row>
     <row r="290" spans="1:9">
       <c r="A290" t="n">
-        <v>288.033</v>
+        <v>288</v>
       </c>
       <c r="B290" t="n">
         <v>2351.805</v>
@@ -9999,7 +9999,7 @@
     </row>
     <row r="291" spans="1:9">
       <c r="A291" t="n">
-        <v>289.033</v>
+        <v>289</v>
       </c>
       <c r="B291" t="n">
         <v>2358.333</v>
@@ -10028,7 +10028,7 @@
     </row>
     <row r="292" spans="1:9">
       <c r="A292" t="n">
-        <v>290.033</v>
+        <v>290</v>
       </c>
       <c r="B292" t="n">
         <v>2364.722</v>
@@ -10057,7 +10057,7 @@
     </row>
     <row r="293" spans="1:9">
       <c r="A293" t="n">
-        <v>291.033</v>
+        <v>291</v>
       </c>
       <c r="B293" t="n">
         <v>2371.111</v>
@@ -10086,7 +10086,7 @@
     </row>
     <row r="294" spans="1:9">
       <c r="A294" t="n">
-        <v>292.033</v>
+        <v>292</v>
       </c>
       <c r="B294" t="n">
         <v>2377.5</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="295" spans="1:9">
       <c r="A295" t="n">
-        <v>293.033</v>
+        <v>293</v>
       </c>
       <c r="B295" t="n">
         <v>2383.888</v>
@@ -10144,7 +10144,7 @@
     </row>
     <row r="296" spans="1:9">
       <c r="A296" t="n">
-        <v>294.033</v>
+        <v>294</v>
       </c>
       <c r="B296" t="n">
         <v>2390.277</v>
@@ -10173,7 +10173,7 @@
     </row>
     <row r="297" spans="1:9">
       <c r="A297" t="n">
-        <v>295.033</v>
+        <v>295</v>
       </c>
       <c r="B297" t="n">
         <v>2396.944</v>
@@ -10202,7 +10202,7 @@
     </row>
     <row r="298" spans="1:9">
       <c r="A298" t="n">
-        <v>296.033</v>
+        <v>296</v>
       </c>
       <c r="B298" t="n">
         <v>2403.611</v>
@@ -10231,7 +10231,7 @@
     </row>
     <row r="299" spans="1:9">
       <c r="A299" t="n">
-        <v>297.033</v>
+        <v>297</v>
       </c>
       <c r="B299" t="n">
         <v>2410.277</v>
@@ -10260,7 +10260,7 @@
     </row>
     <row r="300" spans="1:9">
       <c r="A300" t="n">
-        <v>298.033</v>
+        <v>298</v>
       </c>
       <c r="B300" t="n">
         <v>2416.944</v>
@@ -10289,7 +10289,7 @@
     </row>
     <row r="301" spans="1:9">
       <c r="A301" t="n">
-        <v>299.033</v>
+        <v>299</v>
       </c>
       <c r="B301" t="n">
         <v>2423.888</v>
@@ -10318,7 +10318,7 @@
     </row>
     <row r="302" spans="1:9">
       <c r="A302" t="n">
-        <v>300.033</v>
+        <v>300</v>
       </c>
       <c r="B302" t="n">
         <v>2430.833</v>
@@ -10347,7 +10347,7 @@
     </row>
     <row r="303" spans="1:9">
       <c r="A303" t="n">
-        <v>301.033</v>
+        <v>301</v>
       </c>
       <c r="B303" t="n">
         <v>2437.5</v>
@@ -10376,7 +10376,7 @@
     </row>
     <row r="304" spans="1:9">
       <c r="A304" t="n">
-        <v>302.033</v>
+        <v>302</v>
       </c>
       <c r="B304" t="n">
         <v>2444.166</v>
@@ -10405,7 +10405,7 @@
     </row>
     <row r="305" spans="1:9">
       <c r="A305" t="n">
-        <v>303.033</v>
+        <v>303</v>
       </c>
       <c r="B305" t="n">
         <v>2451.111</v>
@@ -10434,7 +10434,7 @@
     </row>
     <row r="306" spans="1:9">
       <c r="A306" t="n">
-        <v>304.033</v>
+        <v>304</v>
       </c>
       <c r="B306" t="n">
         <v>2458.333</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="307" spans="1:9">
       <c r="A307" t="n">
-        <v>305.033</v>
+        <v>305</v>
       </c>
       <c r="B307" t="n">
         <v>2465.555</v>
@@ -10492,7 +10492,7 @@
     </row>
     <row r="308" spans="1:9">
       <c r="A308" t="n">
-        <v>306.033</v>
+        <v>306</v>
       </c>
       <c r="B308" t="n">
         <v>2472.777</v>
@@ -10521,7 +10521,7 @@
     </row>
     <row r="309" spans="1:9">
       <c r="A309" t="n">
-        <v>307.033</v>
+        <v>307</v>
       </c>
       <c r="B309" t="n">
         <v>2480</v>
@@ -10550,7 +10550,7 @@
     </row>
     <row r="310" spans="1:9">
       <c r="A310" t="n">
-        <v>308.033</v>
+        <v>308</v>
       </c>
       <c r="B310" t="n">
         <v>2486.944</v>
@@ -10579,7 +10579,7 @@
     </row>
     <row r="311" spans="1:9">
       <c r="A311" t="n">
-        <v>309.033</v>
+        <v>309</v>
       </c>
       <c r="B311" t="n">
         <v>2494.166</v>
@@ -10608,7 +10608,7 @@
     </row>
     <row r="312" spans="1:9">
       <c r="A312" t="n">
-        <v>310.033</v>
+        <v>310</v>
       </c>
       <c r="B312" t="n">
         <v>2501.388</v>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="313" spans="1:9">
       <c r="A313" t="n">
-        <v>311.033</v>
+        <v>311</v>
       </c>
       <c r="B313" t="n">
         <v>2508.333</v>
@@ -10666,7 +10666,7 @@
     </row>
     <row r="314" spans="1:9">
       <c r="A314" t="n">
-        <v>312.033</v>
+        <v>312</v>
       </c>
       <c r="B314" t="n">
         <v>2515.833</v>
@@ -10695,7 +10695,7 @@
     </row>
     <row r="315" spans="1:9">
       <c r="A315" t="n">
-        <v>313.033</v>
+        <v>313</v>
       </c>
       <c r="B315" t="n">
         <v>2523.055</v>
@@ -10724,7 +10724,7 @@
     </row>
     <row r="316" spans="1:9">
       <c r="A316" t="n">
-        <v>314.033</v>
+        <v>314</v>
       </c>
       <c r="B316" t="n">
         <v>2530.555</v>
@@ -10753,7 +10753,7 @@
     </row>
     <row r="317" spans="1:9">
       <c r="A317" t="n">
-        <v>315.033</v>
+        <v>315</v>
       </c>
       <c r="B317" t="n">
         <v>2538.055</v>
@@ -10782,7 +10782,7 @@
     </row>
     <row r="318" spans="1:9">
       <c r="A318" t="n">
-        <v>316.033</v>
+        <v>316</v>
       </c>
       <c r="B318" t="n">
         <v>2545.555</v>
@@ -10811,7 +10811,7 @@
     </row>
     <row r="319" spans="1:9">
       <c r="A319" t="n">
-        <v>317.033</v>
+        <v>317</v>
       </c>
       <c r="B319" t="n">
         <v>2553.055</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="320" spans="1:9">
       <c r="A320" t="n">
-        <v>318.033</v>
+        <v>318</v>
       </c>
       <c r="B320" t="n">
         <v>2560.833</v>
@@ -10869,7 +10869,7 @@
     </row>
     <row r="321" spans="1:9">
       <c r="A321" t="n">
-        <v>319.033</v>
+        <v>319</v>
       </c>
       <c r="B321" t="n">
         <v>2568.611</v>
@@ -10898,7 +10898,7 @@
     </row>
     <row r="322" spans="1:9">
       <c r="A322" t="n">
-        <v>320.033</v>
+        <v>320</v>
       </c>
       <c r="B322" t="n">
         <v>2576.111</v>
@@ -10927,7 +10927,7 @@
     </row>
     <row r="323" spans="1:9">
       <c r="A323" t="n">
-        <v>321.033</v>
+        <v>321</v>
       </c>
       <c r="B323" t="n">
         <v>2584.444</v>
@@ -10956,7 +10956,7 @@
     </row>
     <row r="324" spans="1:9">
       <c r="A324" t="n">
-        <v>322.033</v>
+        <v>322</v>
       </c>
       <c r="B324" t="n">
         <v>2592.222</v>
@@ -10985,7 +10985,7 @@
     </row>
     <row r="325" spans="1:9">
       <c r="A325" t="n">
-        <v>323.033</v>
+        <v>323</v>
       </c>
       <c r="B325" t="n">
         <v>2600</v>
@@ -11014,7 +11014,7 @@
     </row>
     <row r="326" spans="1:9">
       <c r="A326" t="n">
-        <v>324.033</v>
+        <v>324</v>
       </c>
       <c r="B326" t="n">
         <v>2608.055</v>
@@ -11043,7 +11043,7 @@
     </row>
     <row r="327" spans="1:9">
       <c r="A327" t="n">
-        <v>325.033</v>
+        <v>325</v>
       </c>
       <c r="B327" t="n">
         <v>2615.833</v>
@@ -11072,7 +11072,7 @@
     </row>
     <row r="328" spans="1:9">
       <c r="A328" t="n">
-        <v>326.033</v>
+        <v>326</v>
       </c>
       <c r="B328" t="n">
         <v>2623.888</v>
@@ -11101,7 +11101,7 @@
     </row>
     <row r="329" spans="1:9">
       <c r="A329" t="n">
-        <v>327.033</v>
+        <v>327</v>
       </c>
       <c r="B329" t="n">
         <v>2631.944</v>
@@ -11130,7 +11130,7 @@
     </row>
     <row r="330" spans="1:9">
       <c r="A330" t="n">
-        <v>328.033</v>
+        <v>328</v>
       </c>
       <c r="B330" t="n">
         <v>2639.722</v>
@@ -11159,7 +11159,7 @@
     </row>
     <row r="331" spans="1:9">
       <c r="A331" t="n">
-        <v>329.033</v>
+        <v>329</v>
       </c>
       <c r="B331" t="n">
         <v>2647.5</v>
@@ -11188,7 +11188,7 @@
     </row>
     <row r="332" spans="1:9">
       <c r="A332" t="n">
-        <v>330.033</v>
+        <v>330</v>
       </c>
       <c r="B332" t="n">
         <v>2656.111</v>
@@ -11217,7 +11217,7 @@
     </row>
     <row r="333" spans="1:9">
       <c r="A333" t="n">
-        <v>331.033</v>
+        <v>331</v>
       </c>
       <c r="B333" t="n">
         <v>2664.166</v>
@@ -11246,7 +11246,7 @@
     </row>
     <row r="334" spans="1:9">
       <c r="A334" t="n">
-        <v>332.033</v>
+        <v>332</v>
       </c>
       <c r="B334" t="n">
         <v>2672.222</v>
@@ -11275,7 +11275,7 @@
     </row>
     <row r="335" spans="1:9">
       <c r="A335" t="n">
-        <v>333.033</v>
+        <v>333</v>
       </c>
       <c r="B335" t="n">
         <v>2680.833</v>
@@ -11304,7 +11304,7 @@
     </row>
     <row r="336" spans="1:9">
       <c r="A336" t="n">
-        <v>334.033</v>
+        <v>334</v>
       </c>
       <c r="B336" t="n">
         <v>2688.888</v>
@@ -11333,7 +11333,7 @@
     </row>
     <row r="337" spans="1:9">
       <c r="A337" t="n">
-        <v>335.033</v>
+        <v>335</v>
       </c>
       <c r="B337" t="n">
         <v>2696.666</v>
@@ -11362,7 +11362,7 @@
     </row>
     <row r="338" spans="1:9">
       <c r="A338" t="n">
-        <v>336.033</v>
+        <v>336</v>
       </c>
       <c r="B338" t="n">
         <v>2705.555</v>
@@ -11391,7 +11391,7 @@
     </row>
     <row r="339" spans="1:9">
       <c r="A339" t="n">
-        <v>337.033</v>
+        <v>337</v>
       </c>
       <c r="B339" t="n">
         <v>2713.888</v>
@@ -11420,7 +11420,7 @@
     </row>
     <row r="340" spans="1:9">
       <c r="A340" t="n">
-        <v>338.033</v>
+        <v>338</v>
       </c>
       <c r="B340" t="n">
         <v>2722.5</v>
@@ -11449,7 +11449,7 @@
     </row>
     <row r="341" spans="1:9">
       <c r="A341" t="n">
-        <v>339.033</v>
+        <v>339</v>
       </c>
       <c r="B341" t="n">
         <v>2731.111</v>
@@ -11478,7 +11478,7 @@
     </row>
     <row r="342" spans="1:9">
       <c r="A342" t="n">
-        <v>340.033</v>
+        <v>340</v>
       </c>
       <c r="B342" t="n">
         <v>2739.722</v>
@@ -11507,7 +11507,7 @@
     </row>
     <row r="343" spans="1:9">
       <c r="A343" t="n">
-        <v>341.033</v>
+        <v>341</v>
       </c>
       <c r="B343" t="n">
         <v>2748.333</v>
@@ -11536,7 +11536,7 @@
     </row>
     <row r="344" spans="1:9">
       <c r="A344" t="n">
-        <v>342.033</v>
+        <v>342</v>
       </c>
       <c r="B344" t="n">
         <v>2757.5</v>
@@ -11565,7 +11565,7 @@
     </row>
     <row r="345" spans="1:9">
       <c r="A345" t="n">
-        <v>343.033</v>
+        <v>343</v>
       </c>
       <c r="B345" t="n">
         <v>2766.388</v>
@@ -11594,7 +11594,7 @@
     </row>
     <row r="346" spans="1:9">
       <c r="A346" t="n">
-        <v>344.033</v>
+        <v>344</v>
       </c>
       <c r="B346" t="n">
         <v>2775</v>
@@ -11623,7 +11623,7 @@
     </row>
     <row r="347" spans="1:9">
       <c r="A347" t="n">
-        <v>345.033</v>
+        <v>345</v>
       </c>
       <c r="B347" t="n">
         <v>2784.444</v>
@@ -11652,7 +11652,7 @@
     </row>
     <row r="348" spans="1:9">
       <c r="A348" t="n">
-        <v>346.033</v>
+        <v>346</v>
       </c>
       <c r="B348" t="n">
         <v>2793.611</v>
@@ -11681,7 +11681,7 @@
     </row>
     <row r="349" spans="1:9">
       <c r="A349" t="n">
-        <v>347.033</v>
+        <v>347</v>
       </c>
       <c r="B349" t="n">
         <v>2802.5</v>
@@ -11710,7 +11710,7 @@
     </row>
     <row r="350" spans="1:9">
       <c r="A350" t="n">
-        <v>348.033</v>
+        <v>348</v>
       </c>
       <c r="B350" t="n">
         <v>2811.388</v>
@@ -11739,7 +11739,7 @@
     </row>
     <row r="351" spans="1:9">
       <c r="A351" t="n">
-        <v>349.033</v>
+        <v>349</v>
       </c>
       <c r="B351" t="n">
         <v>2820.555</v>
@@ -11768,7 +11768,7 @@
     </row>
     <row r="352" spans="1:9">
       <c r="A352" t="n">
-        <v>350.033</v>
+        <v>350</v>
       </c>
       <c r="B352" t="n">
         <v>2829.722</v>
@@ -11797,7 +11797,7 @@
     </row>
     <row r="353" spans="1:9">
       <c r="A353" t="n">
-        <v>351.033</v>
+        <v>351</v>
       </c>
       <c r="B353" t="n">
         <v>2838.888</v>
@@ -11826,7 +11826,7 @@
     </row>
     <row r="354" spans="1:9">
       <c r="A354" t="n">
-        <v>352.033</v>
+        <v>352</v>
       </c>
       <c r="B354" t="n">
         <v>2848.055</v>
@@ -11855,7 +11855,7 @@
     </row>
     <row r="355" spans="1:9">
       <c r="A355" t="n">
-        <v>353.033</v>
+        <v>353</v>
       </c>
       <c r="B355" t="n">
         <v>2857.222</v>
@@ -11884,7 +11884,7 @@
     </row>
     <row r="356" spans="1:9">
       <c r="A356" t="n">
-        <v>354.033</v>
+        <v>354</v>
       </c>
       <c r="B356" t="n">
         <v>2866.666</v>
@@ -11913,7 +11913,7 @@
     </row>
     <row r="357" spans="1:9">
       <c r="A357" t="n">
-        <v>355.033</v>
+        <v>355</v>
       </c>
       <c r="B357" t="n">
         <v>2875.833</v>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="358" spans="1:9">
       <c r="A358" t="n">
-        <v>356.033</v>
+        <v>356</v>
       </c>
       <c r="B358" t="n">
         <v>2884.722</v>
@@ -11971,7 +11971,7 @@
     </row>
     <row r="359" spans="1:9">
       <c r="A359" t="n">
-        <v>357.033</v>
+        <v>357</v>
       </c>
       <c r="B359" t="n">
         <v>2894.444</v>
@@ -12000,7 +12000,7 @@
     </row>
     <row r="360" spans="1:9">
       <c r="A360" t="n">
-        <v>358.033</v>
+        <v>358</v>
       </c>
       <c r="B360" t="n">
         <v>2903.888</v>
@@ -12029,7 +12029,7 @@
     </row>
     <row r="361" spans="1:9">
       <c r="A361" t="n">
-        <v>359.033</v>
+        <v>359</v>
       </c>
       <c r="B361" t="n">
         <v>2913.055</v>
@@ -12058,7 +12058,7 @@
     </row>
     <row r="362" spans="1:9">
       <c r="A362" t="n">
-        <v>360.033</v>
+        <v>360</v>
       </c>
       <c r="B362" t="n">
         <v>2923.333</v>
@@ -12087,7 +12087,7 @@
     </row>
     <row r="363" spans="1:9">
       <c r="A363" t="n">
-        <v>361.033</v>
+        <v>361</v>
       </c>
       <c r="B363" t="n">
         <v>2933.055</v>
@@ -12116,7 +12116,7 @@
     </row>
     <row r="364" spans="1:9">
       <c r="A364" t="n">
-        <v>362.033</v>
+        <v>362</v>
       </c>
       <c r="B364" t="n">
         <v>2942.5</v>
@@ -12145,7 +12145,7 @@
     </row>
     <row r="365" spans="1:9">
       <c r="A365" t="n">
-        <v>363.033</v>
+        <v>363</v>
       </c>
       <c r="B365" t="n">
         <v>2952.222</v>
@@ -12174,7 +12174,7 @@
     </row>
     <row r="366" spans="1:9">
       <c r="A366" t="n">
-        <v>364.033</v>
+        <v>364</v>
       </c>
       <c r="B366" t="n">
         <v>2962.222</v>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="367" spans="1:9">
       <c r="A367" t="n">
-        <v>365.033</v>
+        <v>365</v>
       </c>
       <c r="B367" t="n">
         <v>2972.222</v>
@@ -12232,7 +12232,7 @@
     </row>
     <row r="368" spans="1:9">
       <c r="A368" t="n">
-        <v>366.033</v>
+        <v>366</v>
       </c>
       <c r="B368" t="n">
         <v>2981.666</v>
@@ -12261,7 +12261,7 @@
     </row>
     <row r="369" spans="1:9">
       <c r="A369" t="n">
-        <v>367.033</v>
+        <v>367</v>
       </c>
       <c r="B369" t="n">
         <v>2992.222</v>
@@ -12290,7 +12290,7 @@
     </row>
     <row r="370" spans="1:9">
       <c r="A370" t="n">
-        <v>368.033</v>
+        <v>368</v>
       </c>
       <c r="B370" t="n">
         <v>3001.805</v>
@@ -12319,7 +12319,7 @@
     </row>
     <row r="371" spans="1:9">
       <c r="A371" t="n">
-        <v>369.033</v>
+        <v>369</v>
       </c>
       <c r="B371" t="n">
         <v>3011.666</v>
@@ -12348,7 +12348,7 @@
     </row>
     <row r="372" spans="1:9">
       <c r="A372" t="n">
-        <v>370.033</v>
+        <v>370</v>
       </c>
       <c r="B372" t="n">
         <v>3021.944</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="373" spans="1:9">
       <c r="A373" t="n">
-        <v>371.033</v>
+        <v>371</v>
       </c>
       <c r="B373" t="n">
         <v>3032.222</v>
@@ -12406,7 +12406,7 @@
     </row>
     <row r="374" spans="1:9">
       <c r="A374" t="n">
-        <v>372.033</v>
+        <v>372</v>
       </c>
       <c r="B374" t="n">
         <v>3042.222</v>
@@ -12435,7 +12435,7 @@
     </row>
     <row r="375" spans="1:9">
       <c r="A375" t="n">
-        <v>373.033</v>
+        <v>373</v>
       </c>
       <c r="B375" t="n">
         <v>3052.222</v>
@@ -12464,7 +12464,7 @@
     </row>
     <row r="376" spans="1:9">
       <c r="A376" t="n">
-        <v>374.033</v>
+        <v>374</v>
       </c>
       <c r="B376" t="n">
         <v>3062.222</v>
@@ -12493,7 +12493,7 @@
     </row>
     <row r="377" spans="1:9">
       <c r="A377" t="n">
-        <v>375.033</v>
+        <v>375</v>
       </c>
       <c r="B377" t="n">
         <v>3073.055</v>
@@ -12522,7 +12522,7 @@
     </row>
     <row r="378" spans="1:9">
       <c r="A378" t="n">
-        <v>376.033</v>
+        <v>376</v>
       </c>
       <c r="B378" t="n">
         <v>3083.333</v>
@@ -12551,7 +12551,7 @@
     </row>
     <row r="379" spans="1:9">
       <c r="A379" t="n">
-        <v>377.033</v>
+        <v>377</v>
       </c>
       <c r="B379" t="n">
         <v>3093.888</v>
@@ -12580,7 +12580,7 @@
     </row>
     <row r="380" spans="1:9">
       <c r="A380" t="n">
-        <v>378.033</v>
+        <v>378</v>
       </c>
       <c r="B380" t="n">
         <v>3104.722</v>
@@ -12609,7 +12609,7 @@
     </row>
     <row r="381" spans="1:9">
       <c r="A381" t="n">
-        <v>379.033</v>
+        <v>379</v>
       </c>
       <c r="B381" t="n">
         <v>3115.277</v>
@@ -12638,7 +12638,7 @@
     </row>
     <row r="382" spans="1:9">
       <c r="A382" t="n">
-        <v>380.033</v>
+        <v>380</v>
       </c>
       <c r="B382" t="n">
         <v>3126.111</v>
@@ -12667,7 +12667,7 @@
     </row>
     <row r="383" spans="1:9">
       <c r="A383" t="n">
-        <v>381.033</v>
+        <v>381</v>
       </c>
       <c r="B383" t="n">
         <v>3136.944</v>
@@ -12696,7 +12696,7 @@
     </row>
     <row r="384" spans="1:9">
       <c r="A384" t="n">
-        <v>382.033</v>
+        <v>382</v>
       </c>
       <c r="B384" t="n">
         <v>3147.777</v>
@@ -12725,7 +12725,7 @@
     </row>
     <row r="385" spans="1:9">
       <c r="A385" t="n">
-        <v>383.033</v>
+        <v>383</v>
       </c>
       <c r="B385" t="n">
         <v>3158.055</v>
@@ -12754,7 +12754,7 @@
     </row>
     <row r="386" spans="1:9">
       <c r="A386" t="n">
-        <v>384.033</v>
+        <v>384</v>
       </c>
       <c r="B386" t="n">
         <v>3169.166</v>
@@ -12783,7 +12783,7 @@
     </row>
     <row r="387" spans="1:9">
       <c r="A387" t="n">
-        <v>385.033</v>
+        <v>385</v>
       </c>
       <c r="B387" t="n">
         <v>3180</v>
@@ -12812,7 +12812,7 @@
     </row>
     <row r="388" spans="1:9">
       <c r="A388" t="n">
-        <v>386.033</v>
+        <v>386</v>
       </c>
       <c r="B388" t="n">
         <v>3191.111</v>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="389" spans="1:9">
       <c r="A389" t="n">
-        <v>387.033</v>
+        <v>387</v>
       </c>
       <c r="B389" t="n">
         <v>3202.777</v>
@@ -12870,7 +12870,7 @@
     </row>
     <row r="390" spans="1:9">
       <c r="A390" t="n">
-        <v>388.033</v>
+        <v>388</v>
       </c>
       <c r="B390" t="n">
         <v>3213.888</v>
@@ -12899,7 +12899,7 @@
     </row>
     <row r="391" spans="1:9">
       <c r="A391" t="n">
-        <v>389.033</v>
+        <v>389</v>
       </c>
       <c r="B391" t="n">
         <v>3224.444</v>
@@ -12928,7 +12928,7 @@
     </row>
     <row r="392" spans="1:9">
       <c r="A392" t="n">
-        <v>390.033</v>
+        <v>390</v>
       </c>
       <c r="B392" t="n">
         <v>3236.111</v>
@@ -12957,7 +12957,7 @@
     </row>
     <row r="393" spans="1:9">
       <c r="A393" t="n">
-        <v>391.033</v>
+        <v>391</v>
       </c>
       <c r="B393" t="n">
         <v>3247.5</v>
@@ -12986,7 +12986,7 @@
     </row>
     <row r="394" spans="1:9">
       <c r="A394" t="n">
-        <v>392.033</v>
+        <v>392</v>
       </c>
       <c r="B394" t="n">
         <v>3258.888</v>
@@ -13015,7 +13015,7 @@
     </row>
     <row r="395" spans="1:9">
       <c r="A395" t="n">
-        <v>393.033</v>
+        <v>393</v>
       </c>
       <c r="B395" t="n">
         <v>3270.277</v>
@@ -13044,7 +13044,7 @@
     </row>
     <row r="396" spans="1:9">
       <c r="A396" t="n">
-        <v>394.033</v>
+        <v>394</v>
       </c>
       <c r="B396" t="n">
         <v>3281.666</v>
@@ -13073,7 +13073,7 @@
     </row>
     <row r="397" spans="1:9">
       <c r="A397" t="n">
-        <v>395.033</v>
+        <v>395</v>
       </c>
       <c r="B397" t="n">
         <v>3293.055</v>
@@ -13102,7 +13102,7 @@
     </row>
     <row r="398" spans="1:9">
       <c r="A398" t="n">
-        <v>396.033</v>
+        <v>396</v>
       </c>
       <c r="B398" t="n">
         <v>3304.722</v>
@@ -13131,7 +13131,7 @@
     </row>
     <row r="399" spans="1:9">
       <c r="A399" t="n">
-        <v>397.033</v>
+        <v>397</v>
       </c>
       <c r="B399" t="n">
         <v>3315.555</v>
@@ -13160,7 +13160,7 @@
     </row>
     <row r="400" spans="1:9">
       <c r="A400" t="n">
-        <v>398.033</v>
+        <v>398</v>
       </c>
       <c r="B400" t="n">
         <v>3327.777</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="401" spans="1:9">
       <c r="A401" t="n">
-        <v>399.033</v>
+        <v>399</v>
       </c>
       <c r="B401" t="n">
         <v>3339.166</v>
@@ -13218,7 +13218,7 @@
     </row>
     <row r="402" spans="1:9">
       <c r="A402" t="n">
-        <v>400.033</v>
+        <v>400</v>
       </c>
       <c r="B402" t="n">
         <v>3351.111</v>
@@ -13247,7 +13247,7 @@
     </row>
     <row r="403" spans="1:9">
       <c r="A403" t="n">
-        <v>401.033</v>
+        <v>401</v>
       </c>
       <c r="B403" t="n">
         <v>3362.777</v>
@@ -13276,7 +13276,7 @@
     </row>
     <row r="404" spans="1:9">
       <c r="A404" t="n">
-        <v>402.033</v>
+        <v>402</v>
       </c>
       <c r="B404" t="n">
         <v>3374.722</v>
@@ -13305,7 +13305,7 @@
     </row>
     <row r="405" spans="1:9">
       <c r="A405" t="n">
-        <v>403.033</v>
+        <v>403</v>
       </c>
       <c r="B405" t="n">
         <v>3386.388</v>
@@ -13334,7 +13334,7 @@
     </row>
     <row r="406" spans="1:9">
       <c r="A406" t="n">
-        <v>404.033</v>
+        <v>404</v>
       </c>
       <c r="B406" t="n">
         <v>3398.055</v>
@@ -13363,7 +13363,7 @@
     </row>
     <row r="407" spans="1:9">
       <c r="A407" t="n">
-        <v>405.033</v>
+        <v>405</v>
       </c>
       <c r="B407" t="n">
         <v>3410.277</v>
@@ -13392,7 +13392,7 @@
     </row>
     <row r="408" spans="1:9">
       <c r="A408" t="n">
-        <v>406.033</v>
+        <v>406</v>
       </c>
       <c r="B408" t="n">
         <v>3422.5</v>
@@ -13421,7 +13421,7 @@
     </row>
     <row r="409" spans="1:9">
       <c r="A409" t="n">
-        <v>407.033</v>
+        <v>407</v>
       </c>
       <c r="B409" t="n">
         <v>3434.166</v>
@@ -13450,7 +13450,7 @@
     </row>
     <row r="410" spans="1:9">
       <c r="A410" t="n">
-        <v>408.033</v>
+        <v>408</v>
       </c>
       <c r="B410" t="n">
         <v>3446.388</v>
@@ -13479,7 +13479,7 @@
     </row>
     <row r="411" spans="1:9">
       <c r="A411" t="n">
-        <v>409.033</v>
+        <v>409</v>
       </c>
       <c r="B411" t="n">
         <v>3458.888</v>
@@ -13508,7 +13508,7 @@
     </row>
     <row r="412" spans="1:9">
       <c r="A412" t="n">
-        <v>410.033</v>
+        <v>410</v>
       </c>
       <c r="B412" t="n">
         <v>3471.388</v>
@@ -13537,7 +13537,7 @@
     </row>
     <row r="413" spans="1:9">
       <c r="A413" t="n">
-        <v>411.033</v>
+        <v>411</v>
       </c>
       <c r="B413" t="n">
         <v>3484.166</v>
@@ -13566,7 +13566,7 @@
     </row>
     <row r="414" spans="1:9">
       <c r="A414" t="n">
-        <v>412.033</v>
+        <v>412</v>
       </c>
       <c r="B414" t="n">
         <v>3496.666</v>
@@ -13595,7 +13595,7 @@
     </row>
     <row r="415" spans="1:9">
       <c r="A415" t="n">
-        <v>413.033</v>
+        <v>413</v>
       </c>
       <c r="B415" t="n">
         <v>3508.888</v>
@@ -13624,7 +13624,7 @@
     </row>
     <row r="416" spans="1:9">
       <c r="A416" t="n">
-        <v>414.033</v>
+        <v>414</v>
       </c>
       <c r="B416" t="n">
         <v>3522.222</v>
@@ -13653,7 +13653,7 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" t="n">
-        <v>415.033</v>
+        <v>415</v>
       </c>
       <c r="B417" t="n">
         <v>3535</v>
@@ -13682,7 +13682,7 @@
     </row>
     <row r="418" spans="1:9">
       <c r="A418" t="n">
-        <v>416.033</v>
+        <v>416</v>
       </c>
       <c r="B418" t="n">
         <v>3547.222</v>
@@ -13711,7 +13711,7 @@
     </row>
     <row r="419" spans="1:9">
       <c r="A419" t="n">
-        <v>417.033</v>
+        <v>417</v>
       </c>
       <c r="B419" t="n">
         <v>3560.416</v>
@@ -13740,7 +13740,7 @@
     </row>
     <row r="420" spans="1:9">
       <c r="A420" t="n">
-        <v>418.033</v>
+        <v>418</v>
       </c>
       <c r="B420" t="n">
         <v>3573.611</v>
@@ -13769,7 +13769,7 @@
     </row>
     <row r="421" spans="1:9">
       <c r="A421" t="n">
-        <v>419.033</v>
+        <v>419</v>
       </c>
       <c r="B421" t="n">
         <v>3586.666</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="422" spans="1:9">
       <c r="A422" t="n">
-        <v>420.033</v>
+        <v>420</v>
       </c>
       <c r="B422" t="n">
         <v>3600</v>
@@ -13827,7 +13827,7 @@
     </row>
     <row r="423" spans="1:9">
       <c r="A423" t="n">
-        <v>421.033</v>
+        <v>421</v>
       </c>
       <c r="B423" t="n">
         <v>3612.777</v>
@@ -13856,7 +13856,7 @@
     </row>
     <row r="424" spans="1:9">
       <c r="A424" t="n">
-        <v>422.033</v>
+        <v>422</v>
       </c>
       <c r="B424" t="n">
         <v>3625.833</v>
@@ -13885,7 +13885,7 @@
     </row>
     <row r="425" spans="1:9">
       <c r="A425" t="n">
-        <v>423.033</v>
+        <v>423</v>
       </c>
       <c r="B425" t="n">
         <v>3639.166</v>
@@ -13914,7 +13914,7 @@
     </row>
     <row r="426" spans="1:9">
       <c r="A426" t="n">
-        <v>424.033</v>
+        <v>424</v>
       </c>
       <c r="B426" t="n">
         <v>3652.222</v>
@@ -13943,7 +13943,7 @@
     </row>
     <row r="427" spans="1:9">
       <c r="A427" t="n">
-        <v>425.033</v>
+        <v>425</v>
       </c>
       <c r="B427" t="n">
         <v>3665.277</v>
@@ -13972,7 +13972,7 @@
     </row>
     <row r="428" spans="1:9">
       <c r="A428" t="n">
-        <v>426.033</v>
+        <v>426</v>
       </c>
       <c r="B428" t="n">
         <v>3679.166</v>
@@ -14001,7 +14001,7 @@
     </row>
     <row r="429" spans="1:9">
       <c r="A429" t="n">
-        <v>427.033</v>
+        <v>427</v>
       </c>
       <c r="B429" t="n">
         <v>3692.777</v>
@@ -14030,7 +14030,7 @@
     </row>
     <row r="430" spans="1:9">
       <c r="A430" t="n">
-        <v>428.033</v>
+        <v>428</v>
       </c>
       <c r="B430" t="n">
         <v>3706.388</v>
@@ -14059,7 +14059,7 @@
     </row>
     <row r="431" spans="1:9">
       <c r="A431" t="n">
-        <v>429.033</v>
+        <v>429</v>
       </c>
       <c r="B431" t="n">
         <v>3719.722</v>
@@ -14088,7 +14088,7 @@
     </row>
     <row r="432" spans="1:9">
       <c r="A432" t="n">
-        <v>430.033</v>
+        <v>430</v>
       </c>
       <c r="B432" t="n">
         <v>3733.055</v>
@@ -14117,7 +14117,7 @@
     </row>
     <row r="433" spans="1:9">
       <c r="A433" t="n">
-        <v>431.033</v>
+        <v>431</v>
       </c>
       <c r="B433" t="n">
         <v>3746.388</v>
@@ -14146,7 +14146,7 @@
     </row>
     <row r="434" spans="1:9">
       <c r="A434" t="n">
-        <v>432.033</v>
+        <v>432</v>
       </c>
       <c r="B434" t="n">
         <v>3760.555</v>
@@ -14175,7 +14175,7 @@
     </row>
     <row r="435" spans="1:9">
       <c r="A435" t="n">
-        <v>433.033</v>
+        <v>433</v>
       </c>
       <c r="B435" t="n">
         <v>3774.722</v>
@@ -14204,7 +14204,7 @@
     </row>
     <row r="436" spans="1:9">
       <c r="A436" t="n">
-        <v>434.033</v>
+        <v>434</v>
       </c>
       <c r="B436" t="n">
         <v>3788.333</v>
@@ -14233,7 +14233,7 @@
     </row>
     <row r="437" spans="1:9">
       <c r="A437" t="n">
-        <v>435.033</v>
+        <v>435</v>
       </c>
       <c r="B437" t="n">
         <v>3802.5</v>
@@ -14262,7 +14262,7 @@
     </row>
     <row r="438" spans="1:9">
       <c r="A438" t="n">
-        <v>436.033</v>
+        <v>436</v>
       </c>
       <c r="B438" t="n">
         <v>3816.944</v>
@@ -14291,7 +14291,7 @@
     </row>
     <row r="439" spans="1:9">
       <c r="A439" t="n">
-        <v>437.033</v>
+        <v>437</v>
       </c>
       <c r="B439" t="n">
         <v>3830.277</v>
@@ -14320,7 +14320,7 @@
     </row>
     <row r="440" spans="1:9">
       <c r="A440" t="n">
-        <v>438.033</v>
+        <v>438</v>
       </c>
       <c r="B440" t="n">
         <v>3844.722</v>
@@ -14349,7 +14349,7 @@
     </row>
     <row r="441" spans="1:9">
       <c r="A441" t="n">
-        <v>439.033</v>
+        <v>439</v>
       </c>
       <c r="B441" t="n">
         <v>3857.777</v>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="442" spans="1:9">
       <c r="A442" t="n">
-        <v>440.033</v>
+        <v>440</v>
       </c>
       <c r="B442" t="n">
         <v>3872.777</v>
@@ -14407,7 +14407,7 @@
     </row>
     <row r="443" spans="1:9">
       <c r="A443" t="n">
-        <v>441.033</v>
+        <v>441</v>
       </c>
       <c r="B443" t="n">
         <v>3888.471</v>
@@ -14436,7 +14436,7 @@
     </row>
     <row r="444" spans="1:9">
       <c r="A444" t="n">
-        <v>442.033</v>
+        <v>442</v>
       </c>
       <c r="B444" t="n">
         <v>3902.5</v>
@@ -14465,7 +14465,7 @@
     </row>
     <row r="445" spans="1:9">
       <c r="A445" t="n">
-        <v>443.033</v>
+        <v>443</v>
       </c>
       <c r="B445" t="n">
         <v>3916.666</v>
@@ -14494,7 +14494,7 @@
     </row>
     <row r="446" spans="1:9">
       <c r="A446" t="n">
-        <v>444.033</v>
+        <v>444</v>
       </c>
       <c r="B446" t="n">
         <v>3931.388</v>
@@ -14523,7 +14523,7 @@
     </row>
     <row r="447" spans="1:9">
       <c r="A447" t="n">
-        <v>445.033</v>
+        <v>445</v>
       </c>
       <c r="B447" t="n">
         <v>3947.222</v>
@@ -14552,7 +14552,7 @@
     </row>
     <row r="448" spans="1:9">
       <c r="A448" t="n">
-        <v>446.033</v>
+        <v>446</v>
       </c>
       <c r="B448" t="n">
         <v>3961.944</v>
@@ -14581,7 +14581,7 @@
     </row>
     <row r="449" spans="1:9">
       <c r="A449" t="n">
-        <v>447.033</v>
+        <v>447</v>
       </c>
       <c r="B449" t="n">
         <v>3977.222</v>
@@ -14610,7 +14610,7 @@
     </row>
     <row r="450" spans="1:9">
       <c r="A450" t="n">
-        <v>448.033</v>
+        <v>448</v>
       </c>
       <c r="B450" t="n">
         <v>3992.222</v>
@@ -14639,7 +14639,7 @@
     </row>
     <row r="451" spans="1:9">
       <c r="A451" t="n">
-        <v>449.033</v>
+        <v>449</v>
       </c>
       <c r="B451" t="n">
         <v>4006.666</v>
@@ -14668,7 +14668,7 @@
     </row>
     <row r="452" spans="1:9">
       <c r="A452" t="n">
-        <v>450.033</v>
+        <v>450</v>
       </c>
       <c r="B452" t="n">
         <v>4021.944</v>
@@ -14697,7 +14697,7 @@
     </row>
     <row r="453" spans="1:9">
       <c r="A453" t="n">
-        <v>451.033</v>
+        <v>451</v>
       </c>
       <c r="B453" t="n">
         <v>4037.222</v>
@@ -14726,7 +14726,7 @@
     </row>
     <row r="454" spans="1:9">
       <c r="A454" t="n">
-        <v>452.033</v>
+        <v>452</v>
       </c>
       <c r="B454" t="n">
         <v>4052.5</v>
@@ -14755,7 +14755,7 @@
     </row>
     <row r="455" spans="1:9">
       <c r="A455" t="n">
-        <v>453.033</v>
+        <v>453</v>
       </c>
       <c r="B455" t="n">
         <v>4067.777</v>
@@ -14784,7 +14784,7 @@
     </row>
     <row r="456" spans="1:9">
       <c r="A456" t="n">
-        <v>454.033</v>
+        <v>454</v>
       </c>
       <c r="B456" t="n">
         <v>4082.5</v>
@@ -14813,7 +14813,7 @@
     </row>
     <row r="457" spans="1:9">
       <c r="A457" t="n">
-        <v>455.033</v>
+        <v>455</v>
       </c>
       <c r="B457" t="n">
         <v>4099.166</v>
@@ -14842,7 +14842,7 @@
     </row>
     <row r="458" spans="1:9">
       <c r="A458" t="n">
-        <v>456.033</v>
+        <v>456</v>
       </c>
       <c r="B458" t="n">
         <v>4114.721</v>
@@ -14871,7 +14871,7 @@
     </row>
     <row r="459" spans="1:9">
       <c r="A459" t="n">
-        <v>457.033</v>
+        <v>457</v>
       </c>
       <c r="B459" t="n">
         <v>4130.555</v>
@@ -14900,7 +14900,7 @@
     </row>
     <row r="460" spans="1:9">
       <c r="A460" t="n">
-        <v>458.033</v>
+        <v>458</v>
       </c>
       <c r="B460" t="n">
         <v>4146.944</v>
@@ -14929,7 +14929,7 @@
     </row>
     <row r="461" spans="1:9">
       <c r="A461" t="n">
-        <v>459.033</v>
+        <v>459</v>
       </c>
       <c r="B461" t="n">
         <v>4162.777</v>
@@ -14958,7 +14958,7 @@
     </row>
     <row r="462" spans="1:9">
       <c r="A462" t="n">
-        <v>460.033</v>
+        <v>460</v>
       </c>
       <c r="B462" t="n">
         <v>4178.888</v>
@@ -14987,7 +14987,7 @@
     </row>
     <row r="463" spans="1:9">
       <c r="A463" t="n">
-        <v>461.033</v>
+        <v>461</v>
       </c>
       <c r="B463" t="n">
         <v>4194.722</v>
@@ -15016,7 +15016,7 @@
     </row>
     <row r="464" spans="1:9">
       <c r="A464" t="n">
-        <v>462.033</v>
+        <v>462</v>
       </c>
       <c r="B464" t="n">
         <v>4211.388</v>
@@ -15045,7 +15045,7 @@
     </row>
     <row r="465" spans="1:9">
       <c r="A465" t="n">
-        <v>463.033</v>
+        <v>463</v>
       </c>
       <c r="B465" t="n">
         <v>4227.777</v>
@@ -15074,7 +15074,7 @@
     </row>
     <row r="466" spans="1:9">
       <c r="A466" t="n">
-        <v>464.033</v>
+        <v>464</v>
       </c>
       <c r="B466" t="n">
         <v>4243.333</v>
@@ -15103,7 +15103,7 @@
     </row>
     <row r="467" spans="1:9">
       <c r="A467" t="n">
-        <v>465.033</v>
+        <v>465</v>
       </c>
       <c r="B467" t="n">
         <v>4259.444</v>
@@ -15132,7 +15132,7 @@
     </row>
     <row r="468" spans="1:9">
       <c r="A468" t="n">
-        <v>466.033</v>
+        <v>466</v>
       </c>
       <c r="B468" t="n">
         <v>4276.666</v>
@@ -15161,7 +15161,7 @@
     </row>
     <row r="469" spans="1:9">
       <c r="A469" t="n">
-        <v>467.033</v>
+        <v>467</v>
       </c>
       <c r="B469" t="n">
         <v>4293.055</v>
@@ -15190,7 +15190,7 @@
     </row>
     <row r="470" spans="1:9">
       <c r="A470" t="n">
-        <v>468.033</v>
+        <v>468</v>
       </c>
       <c r="B470" t="n">
         <v>4309.999</v>
@@ -15219,7 +15219,7 @@
     </row>
     <row r="471" spans="1:9">
       <c r="A471" t="n">
-        <v>469.033</v>
+        <v>469</v>
       </c>
       <c r="B471" t="n">
         <v>4326.388</v>
@@ -15248,7 +15248,7 @@
     </row>
     <row r="472" spans="1:9">
       <c r="A472" t="n">
-        <v>470.033</v>
+        <v>470</v>
       </c>
       <c r="B472" t="n">
         <v>4342.777</v>
@@ -15277,7 +15277,7 @@
     </row>
     <row r="473" spans="1:9">
       <c r="A473" t="n">
-        <v>471.033</v>
+        <v>471</v>
       </c>
       <c r="B473" t="n">
         <v>4360.277</v>
@@ -15306,7 +15306,7 @@
     </row>
     <row r="474" spans="1:9">
       <c r="A474" t="n">
-        <v>472.033</v>
+        <v>472</v>
       </c>
       <c r="B474" t="n">
         <v>4376.944</v>
@@ -15335,7 +15335,7 @@
     </row>
     <row r="475" spans="1:9">
       <c r="A475" t="n">
-        <v>473.033</v>
+        <v>473</v>
       </c>
       <c r="B475" t="n">
         <v>4394.166</v>
@@ -15364,7 +15364,7 @@
     </row>
     <row r="476" spans="1:9">
       <c r="A476" t="n">
-        <v>474.033</v>
+        <v>474</v>
       </c>
       <c r="B476" t="n">
         <v>4411.388</v>
@@ -15393,7 +15393,7 @@
     </row>
     <row r="477" spans="1:9">
       <c r="A477" t="n">
-        <v>475.033</v>
+        <v>475</v>
       </c>
       <c r="B477" t="n">
         <v>4428.888</v>
@@ -15422,7 +15422,7 @@
     </row>
     <row r="478" spans="1:9">
       <c r="A478" t="n">
-        <v>476.033</v>
+        <v>476</v>
       </c>
       <c r="B478" t="n">
         <v>4445.833</v>
@@ -15451,7 +15451,7 @@
     </row>
     <row r="479" spans="1:9">
       <c r="A479" t="n">
-        <v>477.033</v>
+        <v>477</v>
       </c>
       <c r="B479" t="n">
         <v>4463.949</v>
@@ -15480,7 +15480,7 @@
     </row>
     <row r="480" spans="1:9">
       <c r="A480" t="n">
-        <v>478.033</v>
+        <v>478</v>
       </c>
       <c r="B480" t="n">
         <v>4481.666</v>
@@ -15509,7 +15509,7 @@
     </row>
     <row r="481" spans="1:9">
       <c r="A481" t="n">
-        <v>479.033</v>
+        <v>479</v>
       </c>
       <c r="B481" t="n">
         <v>4498.611</v>
@@ -15538,7 +15538,7 @@
     </row>
     <row r="482" spans="1:9">
       <c r="A482" t="n">
-        <v>480.033</v>
+        <v>480</v>
       </c>
       <c r="B482" t="n">
         <v>4516.944</v>
@@ -15567,7 +15567,7 @@
     </row>
     <row r="483" spans="1:9">
       <c r="A483" t="n">
-        <v>481.033</v>
+        <v>481</v>
       </c>
       <c r="B483" t="n">
         <v>4535.277</v>
@@ -15596,7 +15596,7 @@
     </row>
     <row r="484" spans="1:9">
       <c r="A484" t="n">
-        <v>482.033</v>
+        <v>482</v>
       </c>
       <c r="B484" t="n">
         <v>4553.611</v>
@@ -15625,7 +15625,7 @@
     </row>
     <row r="485" spans="1:9">
       <c r="A485" t="n">
-        <v>483.033</v>
+        <v>483</v>
       </c>
       <c r="B485" t="n">
         <v>4572.5</v>
@@ -15654,7 +15654,7 @@
     </row>
     <row r="486" spans="1:9">
       <c r="A486" t="n">
-        <v>484.033</v>
+        <v>484</v>
       </c>
       <c r="B486" t="n">
         <v>4590.277</v>
@@ -15683,7 +15683,7 @@
     </row>
     <row r="487" spans="1:9">
       <c r="A487" t="n">
-        <v>485.033</v>
+        <v>485</v>
       </c>
       <c r="B487" t="n">
         <v>4607.777</v>
@@ -15712,7 +15712,7 @@
     </row>
     <row r="488" spans="1:9">
       <c r="A488" t="n">
-        <v>486.033</v>
+        <v>486</v>
       </c>
       <c r="B488" t="n">
         <v>4626.388</v>
@@ -15741,7 +15741,7 @@
     </row>
     <row r="489" spans="1:9">
       <c r="A489" t="n">
-        <v>487.033</v>
+        <v>487</v>
       </c>
       <c r="B489" t="n">
         <v>4644.722</v>
@@ -15770,7 +15770,7 @@
     </row>
     <row r="490" spans="1:9">
       <c r="A490" t="n">
-        <v>488.033</v>
+        <v>488</v>
       </c>
       <c r="B490" t="n">
         <v>4663.888</v>
@@ -15799,7 +15799,7 @@
     </row>
     <row r="491" spans="1:9">
       <c r="A491" t="n">
-        <v>489.033</v>
+        <v>489</v>
       </c>
       <c r="B491" t="n">
         <v>4682.5</v>
@@ -15828,7 +15828,7 @@
     </row>
     <row r="492" spans="1:9">
       <c r="A492" t="n">
-        <v>490.033</v>
+        <v>490</v>
       </c>
       <c r="B492" t="n">
         <v>4701.944</v>
@@ -15857,7 +15857,7 @@
     </row>
     <row r="493" spans="1:9">
       <c r="A493" t="n">
-        <v>491.033</v>
+        <v>491</v>
       </c>
       <c r="B493" t="n">
         <v>4720.833</v>
@@ -15886,7 +15886,7 @@
     </row>
     <row r="494" spans="1:9">
       <c r="A494" t="n">
-        <v>492.033</v>
+        <v>492</v>
       </c>
       <c r="B494" t="n">
         <v>4740.277</v>
@@ -15915,7 +15915,7 @@
     </row>
     <row r="495" spans="1:9">
       <c r="A495" t="n">
-        <v>493.033</v>
+        <v>493</v>
       </c>
       <c r="B495" t="n">
         <v>4759.722</v>
@@ -15944,7 +15944,7 @@
     </row>
     <row r="496" spans="1:9">
       <c r="A496" t="n">
-        <v>494.033</v>
+        <v>494</v>
       </c>
       <c r="B496" t="n">
         <v>4778.333</v>
@@ -15973,7 +15973,7 @@
     </row>
     <row r="497" spans="1:9">
       <c r="A497" t="n">
-        <v>495.033</v>
+        <v>495</v>
       </c>
       <c r="B497" t="n">
         <v>4798.611</v>
@@ -16002,7 +16002,7 @@
     </row>
     <row r="498" spans="1:9">
       <c r="A498" t="n">
-        <v>496.033</v>
+        <v>496</v>
       </c>
       <c r="B498" t="n">
         <v>4818.055</v>
@@ -16031,7 +16031,7 @@
     </row>
     <row r="499" spans="1:9">
       <c r="A499" t="n">
-        <v>497.033</v>
+        <v>497</v>
       </c>
       <c r="B499" t="n">
         <v>4838.611</v>
@@ -16060,7 +16060,7 @@
     </row>
     <row r="500" spans="1:9">
       <c r="A500" t="n">
-        <v>498.033</v>
+        <v>498</v>
       </c>
       <c r="B500" t="n">
         <v>4858.611</v>
@@ -16089,7 +16089,7 @@
     </row>
     <row r="501" spans="1:9">
       <c r="A501" t="n">
-        <v>499.033</v>
+        <v>499</v>
       </c>
       <c r="B501" t="n">
         <v>4878.055</v>
@@ -16118,7 +16118,7 @@
     </row>
     <row r="502" spans="1:9">
       <c r="A502" t="n">
-        <v>500.033</v>
+        <v>500</v>
       </c>
       <c r="B502" t="n">
         <v>4899.166</v>
@@ -16147,7 +16147,7 @@
     </row>
     <row r="503" spans="1:9">
       <c r="A503" t="n">
-        <v>501.033</v>
+        <v>501</v>
       </c>
       <c r="B503" t="n">
         <v>4920</v>
@@ -16176,7 +16176,7 @@
     </row>
     <row r="504" spans="1:9">
       <c r="A504" t="n">
-        <v>502.033</v>
+        <v>502</v>
       </c>
       <c r="B504" t="n">
         <v>4938.333</v>
@@ -16205,7 +16205,7 @@
     </row>
     <row r="505" spans="1:9">
       <c r="A505" t="n">
-        <v>503.033</v>
+        <v>503</v>
       </c>
       <c r="B505" t="n">
         <v>4958.333</v>
@@ -16234,7 +16234,7 @@
     </row>
     <row r="506" spans="1:9">
       <c r="A506" t="n">
-        <v>504.033</v>
+        <v>504</v>
       </c>
       <c r="B506" t="n">
         <v>4979.166</v>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="507" spans="1:9">
       <c r="A507" t="n">
-        <v>505.033</v>
+        <v>505</v>
       </c>
       <c r="B507" t="n">
         <v>5000</v>
@@ -16292,7 +16292,7 @@
     </row>
     <row r="508" spans="1:9">
       <c r="A508" t="n">
-        <v>506.033</v>
+        <v>506</v>
       </c>
       <c r="B508" t="n">
         <v>5020.555</v>
@@ -16321,7 +16321,7 @@
     </row>
     <row r="509" spans="1:9">
       <c r="A509" t="n">
-        <v>507.033</v>
+        <v>507</v>
       </c>
       <c r="B509" t="n">
         <v>5042.777</v>
@@ -16350,7 +16350,7 @@
     </row>
     <row r="510" spans="1:9">
       <c r="A510" t="n">
-        <v>508.033</v>
+        <v>508</v>
       </c>
       <c r="B510" t="n">
         <v>5063.333</v>
@@ -16379,7 +16379,7 @@
     </row>
     <row r="511" spans="1:9">
       <c r="A511" t="n">
-        <v>509.033</v>
+        <v>509</v>
       </c>
       <c r="B511" t="n">
         <v>5083.333</v>
@@ -16408,7 +16408,7 @@
     </row>
     <row r="512" spans="1:9">
       <c r="A512" t="n">
-        <v>510.033</v>
+        <v>510</v>
       </c>
       <c r="B512" t="n">
         <v>5105.277</v>
@@ -16437,7 +16437,7 @@
     </row>
     <row r="513" spans="1:9">
       <c r="A513" t="n">
-        <v>511.033</v>
+        <v>511</v>
       </c>
       <c r="B513" t="n">
         <v>5126.111</v>
@@ -16466,7 +16466,7 @@
     </row>
     <row r="514" spans="1:9">
       <c r="A514" t="n">
-        <v>512.033</v>
+        <v>512</v>
       </c>
       <c r="B514" t="n">
         <v>5146.666</v>
@@ -16495,7 +16495,7 @@
     </row>
     <row r="515" spans="1:9">
       <c r="A515" t="n">
-        <v>513.033</v>
+        <v>513</v>
       </c>
       <c r="B515" t="n">
         <v>5170.277</v>
@@ -16524,7 +16524,7 @@
     </row>
     <row r="516" spans="1:9">
       <c r="A516" t="n">
-        <v>514.033</v>
+        <v>514</v>
       </c>
       <c r="B516" t="n">
         <v>5191.944</v>
@@ -16553,7 +16553,7 @@
     </row>
     <row r="517" spans="1:9">
       <c r="A517" t="n">
-        <v>515.033</v>
+        <v>515</v>
       </c>
       <c r="B517" t="n">
         <v>5213.055</v>
@@ -16582,7 +16582,7 @@
     </row>
     <row r="518" spans="1:9">
       <c r="A518" t="n">
-        <v>516.033</v>
+        <v>516</v>
       </c>
       <c r="B518" t="n">
         <v>5236.388</v>
@@ -16611,7 +16611,7 @@
     </row>
     <row r="519" spans="1:9">
       <c r="A519" t="n">
-        <v>517.033</v>
+        <v>517</v>
       </c>
       <c r="B519" t="n">
         <v>5257.222</v>
@@ -16640,7 +16640,7 @@
     </row>
     <row r="520" spans="1:9">
       <c r="A520" t="n">
-        <v>518.033</v>
+        <v>518</v>
       </c>
       <c r="B520" t="n">
         <v>5278.611</v>
@@ -16669,7 +16669,7 @@
     </row>
     <row r="521" spans="1:9">
       <c r="A521" t="n">
-        <v>519.033</v>
+        <v>519</v>
       </c>
       <c r="B521" t="n">
         <v>5301.388</v>
@@ -16698,7 +16698,7 @@
     </row>
     <row r="522" spans="1:9">
       <c r="A522" t="n">
-        <v>520.033</v>
+        <v>520</v>
       </c>
       <c r="B522" t="n">
         <v>5322.777</v>
@@ -16727,7 +16727,7 @@
     </row>
     <row r="523" spans="1:9">
       <c r="A523" t="n">
-        <v>521.033</v>
+        <v>521</v>
       </c>
       <c r="B523" t="n">
         <v>5345.555</v>
@@ -16756,7 +16756,7 @@
     </row>
     <row r="524" spans="1:9">
       <c r="A524" t="n">
-        <v>522.033</v>
+        <v>522</v>
       </c>
       <c r="B524" t="n">
         <v>5368.888</v>
@@ -16785,7 +16785,7 @@
     </row>
     <row r="525" spans="1:9">
       <c r="A525" t="n">
-        <v>523.033</v>
+        <v>523</v>
       </c>
       <c r="B525" t="n">
         <v>5391.666</v>
@@ -16814,7 +16814,7 @@
     </row>
     <row r="526" spans="1:9">
       <c r="A526" t="n">
-        <v>524.033</v>
+        <v>524</v>
       </c>
       <c r="B526" t="n">
         <v>5414.722</v>
@@ -16843,7 +16843,7 @@
     </row>
     <row r="527" spans="1:9">
       <c r="A527" t="n">
-        <v>525.033</v>
+        <v>525</v>
       </c>
       <c r="B527" t="n">
         <v>5438.888</v>
@@ -16872,7 +16872,7 @@
     </row>
     <row r="528" spans="1:9">
       <c r="A528" t="n">
-        <v>526.033</v>
+        <v>526</v>
       </c>
       <c r="B528" t="n">
         <v>5462.5</v>
@@ -16901,7 +16901,7 @@
     </row>
     <row r="529" spans="1:9">
       <c r="A529" t="n">
-        <v>527.033</v>
+        <v>527</v>
       </c>
       <c r="B529" t="n">
         <v>5485</v>
@@ -16930,7 +16930,7 @@
     </row>
     <row r="530" spans="1:9">
       <c r="A530" t="n">
-        <v>528.033</v>
+        <v>528</v>
       </c>
       <c r="B530" t="n">
         <v>5509.444</v>
@@ -16959,7 +16959,7 @@
     </row>
     <row r="531" spans="1:9">
       <c r="A531" t="n">
-        <v>529.033</v>
+        <v>529</v>
       </c>
       <c r="B531" t="n">
         <v>5533.888</v>
@@ -16988,7 +16988,7 @@
     </row>
     <row r="532" spans="1:9">
       <c r="A532" t="n">
-        <v>530.033</v>
+        <v>530</v>
       </c>
       <c r="B532" t="n">
         <v>5557.777</v>
@@ -17017,7 +17017,7 @@
     </row>
     <row r="533" spans="1:9">
       <c r="A533" t="n">
-        <v>531.033</v>
+        <v>531</v>
       </c>
       <c r="B533" t="n">
         <v>5581.944</v>
@@ -17046,7 +17046,7 @@
     </row>
     <row r="534" spans="1:9">
       <c r="A534" t="n">
-        <v>532.033</v>
+        <v>532</v>
       </c>
       <c r="B534" t="n">
         <v>5606.944</v>
@@ -17075,7 +17075,7 @@
     </row>
     <row r="535" spans="1:9">
       <c r="A535" t="n">
-        <v>533.033</v>
+        <v>533</v>
       </c>
       <c r="B535" t="n">
         <v>5632.5</v>
@@ -17104,7 +17104,7 @@
     </row>
     <row r="536" spans="1:9">
       <c r="A536" t="n">
-        <v>534.033</v>
+        <v>534</v>
       </c>
       <c r="B536" t="n">
         <v>5656.388</v>
@@ -17133,7 +17133,7 @@
     </row>
     <row r="537" spans="1:9">
       <c r="A537" t="n">
-        <v>535.033</v>
+        <v>535</v>
       </c>
       <c r="B537" t="n">
         <v>5681.249</v>
@@ -17162,7 +17162,7 @@
     </row>
     <row r="538" spans="1:9">
       <c r="A538" t="n">
-        <v>536.033</v>
+        <v>536</v>
       </c>
       <c r="B538" t="n">
         <v>5705.277</v>
@@ -17191,7 +17191,7 @@
     </row>
     <row r="539" spans="1:9">
       <c r="A539" t="n">
-        <v>537.033</v>
+        <v>537</v>
       </c>
       <c r="B539" t="n">
         <v>5731.111</v>
@@ -17220,7 +17220,7 @@
     </row>
     <row r="540" spans="1:9">
       <c r="A540" t="n">
-        <v>538.033</v>
+        <v>538</v>
       </c>
       <c r="B540" t="n">
         <v>5756.944</v>
@@ -17249,7 +17249,7 @@
     </row>
     <row r="541" spans="1:9">
       <c r="A541" t="n">
-        <v>539.033</v>
+        <v>539</v>
       </c>
       <c r="B541" t="n">
         <v>5782.777</v>
@@ -17278,7 +17278,7 @@
     </row>
     <row r="542" spans="1:9">
       <c r="A542" t="n">
-        <v>540.033</v>
+        <v>540</v>
       </c>
       <c r="B542" t="n">
         <v>5810</v>
@@ -17307,7 +17307,7 @@
     </row>
     <row r="543" spans="1:9">
       <c r="A543" t="n">
-        <v>541.033</v>
+        <v>541</v>
       </c>
       <c r="B543" t="n">
         <v>5835</v>
@@ -17336,7 +17336,7 @@
     </row>
     <row r="544" spans="1:9">
       <c r="A544" t="n">
-        <v>542.033</v>
+        <v>542</v>
       </c>
       <c r="B544" t="n">
         <v>5862.777</v>
@@ -17365,7 +17365,7 @@
     </row>
     <row r="545" spans="1:9">
       <c r="A545" t="n">
-        <v>543.033</v>
+        <v>543</v>
       </c>
       <c r="B545" t="n">
         <v>5889.722</v>
@@ -17394,7 +17394,7 @@
     </row>
     <row r="546" spans="1:9">
       <c r="A546" t="n">
-        <v>544.033</v>
+        <v>544</v>
       </c>
       <c r="B546" t="n">
         <v>5916.111</v>
@@ -17423,7 +17423,7 @@
     </row>
     <row r="547" spans="1:9">
       <c r="A547" t="n">
-        <v>545.033</v>
+        <v>545</v>
       </c>
       <c r="B547" t="n">
         <v>5943.333</v>
@@ -17452,7 +17452,7 @@
     </row>
     <row r="548" spans="1:9">
       <c r="A548" t="n">
-        <v>546.033</v>
+        <v>546</v>
       </c>
       <c r="B548" t="n">
         <v>5969.444</v>
@@ -17481,7 +17481,7 @@
     </row>
     <row r="549" spans="1:9">
       <c r="A549" t="n">
-        <v>547.033</v>
+        <v>547</v>
       </c>
       <c r="B549" t="n">
         <v>5998.888</v>
@@ -17510,7 +17510,7 @@
     </row>
     <row r="550" spans="1:9">
       <c r="A550" t="n">
-        <v>548.033</v>
+        <v>548</v>
       </c>
       <c r="B550" t="n">
         <v>6026.111</v>
@@ -17539,7 +17539,7 @@
     </row>
     <row r="551" spans="1:9">
       <c r="A551" t="n">
-        <v>549.033</v>
+        <v>549</v>
       </c>
       <c r="B551" t="n">
         <v>6055.277</v>
@@ -17568,7 +17568,7 @@
     </row>
     <row r="552" spans="1:9">
       <c r="A552" t="n">
-        <v>550.033</v>
+        <v>550</v>
       </c>
       <c r="B552" t="n">
         <v>6083.055</v>
@@ -17597,7 +17597,7 @@
     </row>
     <row r="553" spans="1:9">
       <c r="A553" t="n">
-        <v>551.033</v>
+        <v>551</v>
       </c>
       <c r="B553" t="n">
         <v>6111.111</v>
@@ -17626,7 +17626,7 @@
     </row>
     <row r="554" spans="1:9">
       <c r="A554" t="n">
-        <v>552.033</v>
+        <v>552</v>
       </c>
       <c r="B554" t="n">
         <v>6138.888</v>
@@ -17655,7 +17655,7 @@
     </row>
     <row r="555" spans="1:9">
       <c r="A555" t="n">
-        <v>553.033</v>
+        <v>553</v>
       </c>
       <c r="B555" t="n">
         <v>6167.5</v>
@@ -17684,7 +17684,7 @@
     </row>
     <row r="556" spans="1:9">
       <c r="A556" t="n">
-        <v>554.033</v>
+        <v>554</v>
       </c>
       <c r="B556" t="n">
         <v>6197.222</v>
@@ -17713,7 +17713,7 @@
     </row>
     <row r="557" spans="1:9">
       <c r="A557" t="n">
-        <v>555.033</v>
+        <v>555</v>
       </c>
       <c r="B557" t="n">
         <v>6226.111</v>
@@ -17742,7 +17742,7 @@
     </row>
     <row r="558" spans="1:9">
       <c r="A558" t="n">
-        <v>556.033</v>
+        <v>556</v>
       </c>
       <c r="B558" t="n">
         <v>6256.388</v>
@@ -17771,7 +17771,7 @@
     </row>
     <row r="559" spans="1:9">
       <c r="A559" t="n">
-        <v>557.033</v>
+        <v>557</v>
       </c>
       <c r="B559" t="n">
         <v>6285.555</v>
@@ -17800,7 +17800,7 @@
     </row>
     <row r="560" spans="1:9">
       <c r="A560" t="n">
-        <v>558.033</v>
+        <v>558</v>
       </c>
       <c r="B560" t="n">
         <v>6315.555</v>
@@ -17829,7 +17829,7 @@
     </row>
     <row r="561" spans="1:9">
       <c r="A561" t="n">
-        <v>559.033</v>
+        <v>559</v>
       </c>
       <c r="B561" t="n">
         <v>6345.833</v>
@@ -17858,7 +17858,7 @@
     </row>
     <row r="562" spans="1:9">
       <c r="A562" t="n">
-        <v>560.033</v>
+        <v>560</v>
       </c>
       <c r="B562" t="n">
         <v>6375.555</v>
@@ -17887,7 +17887,7 @@
     </row>
     <row r="563" spans="1:9">
       <c r="A563" t="n">
-        <v>561.033</v>
+        <v>561</v>
       </c>
       <c r="B563" t="n">
         <v>6406.388</v>
@@ -17916,7 +17916,7 @@
     </row>
     <row r="564" spans="1:9">
       <c r="A564" t="n">
-        <v>562.033</v>
+        <v>562</v>
       </c>
       <c r="B564" t="n">
         <v>6436.666</v>
@@ -17945,7 +17945,7 @@
     </row>
     <row r="565" spans="1:9">
       <c r="A565" t="n">
-        <v>563.033</v>
+        <v>563</v>
       </c>
       <c r="B565" t="n">
         <v>6467.5</v>
@@ -17974,7 +17974,7 @@
     </row>
     <row r="566" spans="1:9">
       <c r="A566" t="n">
-        <v>564.033</v>
+        <v>564</v>
       </c>
       <c r="B566" t="n">
         <v>6498.055</v>
@@ -18003,7 +18003,7 @@
     </row>
     <row r="567" spans="1:9">
       <c r="A567" t="n">
-        <v>565.033</v>
+        <v>565</v>
       </c>
       <c r="B567" t="n">
         <v>6529.444</v>
@@ -18032,7 +18032,7 @@
     </row>
     <row r="568" spans="1:9">
       <c r="A568" t="n">
-        <v>566.033</v>
+        <v>566</v>
       </c>
       <c r="B568" t="n">
         <v>6560.555</v>
@@ -18061,7 +18061,7 @@
     </row>
     <row r="569" spans="1:9">
       <c r="A569" t="n">
-        <v>567.033</v>
+        <v>567</v>
       </c>
       <c r="B569" t="n">
         <v>6593.611</v>
@@ -18090,7 +18090,7 @@
     </row>
     <row r="570" spans="1:9">
       <c r="A570" t="n">
-        <v>568.033</v>
+        <v>568</v>
       </c>
       <c r="B570" t="n">
         <v>6624.722</v>
@@ -18119,7 +18119,7 @@
     </row>
     <row r="571" spans="1:9">
       <c r="A571" t="n">
-        <v>569.033</v>
+        <v>569</v>
       </c>
       <c r="B571" t="n">
         <v>6657.777</v>
@@ -18148,7 +18148,7 @@
     </row>
     <row r="572" spans="1:9">
       <c r="A572" t="n">
-        <v>570.033</v>
+        <v>570</v>
       </c>
       <c r="B572" t="n">
         <v>6689.722</v>
@@ -18177,7 +18177,7 @@
     </row>
     <row r="573" spans="1:9">
       <c r="A573" t="n">
-        <v>571.033</v>
+        <v>571</v>
       </c>
       <c r="B573" t="n">
         <v>6721.111</v>
@@ -18206,7 +18206,7 @@
     </row>
     <row r="574" spans="1:9">
       <c r="A574" t="n">
-        <v>572.033</v>
+        <v>572</v>
       </c>
       <c r="B574" t="n">
         <v>6752.777</v>
@@ -18235,7 +18235,7 @@
     </row>
     <row r="575" spans="1:9">
       <c r="A575" t="n">
-        <v>573.033</v>
+        <v>573</v>
       </c>
       <c r="B575" t="n">
         <v>6788.333</v>
@@ -18264,7 +18264,7 @@
     </row>
     <row r="576" spans="1:9">
       <c r="A576" t="n">
-        <v>574.033</v>
+        <v>574</v>
       </c>
       <c r="B576" t="n">
         <v>6820</v>
@@ -18293,7 +18293,7 @@
     </row>
     <row r="577" spans="1:9">
       <c r="A577" t="n">
-        <v>575.033</v>
+        <v>575</v>
       </c>
       <c r="B577" t="n">
         <v>6854.444</v>
@@ -18322,7 +18322,7 @@
     </row>
     <row r="578" spans="1:9">
       <c r="A578" t="n">
-        <v>576.033</v>
+        <v>576</v>
       </c>
       <c r="B578" t="n">
         <v>6886.666</v>
@@ -18351,7 +18351,7 @@
     </row>
     <row r="579" spans="1:9">
       <c r="A579" t="n">
-        <v>577.033</v>
+        <v>577</v>
       </c>
       <c r="B579" t="n">
         <v>6921.111</v>
@@ -18380,7 +18380,7 @@
     </row>
     <row r="580" spans="1:9">
       <c r="A580" t="n">
-        <v>578.033</v>
+        <v>578</v>
       </c>
       <c r="B580" t="n">
         <v>6956.388</v>
@@ -18409,7 +18409,7 @@
     </row>
     <row r="581" spans="1:9">
       <c r="A581" t="n">
-        <v>579.033</v>
+        <v>579</v>
       </c>
       <c r="B581" t="n">
         <v>6990.277</v>
@@ -18438,7 +18438,7 @@
     </row>
     <row r="582" spans="1:9">
       <c r="A582" t="n">
-        <v>580.033</v>
+        <v>580</v>
       </c>
       <c r="B582" t="n">
         <v>7025</v>
@@ -18467,7 +18467,7 @@
     </row>
     <row r="583" spans="1:9">
       <c r="A583" t="n">
-        <v>581.033</v>
+        <v>581</v>
       </c>
       <c r="B583" t="n">
         <v>7060.277</v>
@@ -18496,7 +18496,7 @@
     </row>
     <row r="584" spans="1:9">
       <c r="A584" t="n">
-        <v>582.033</v>
+        <v>582</v>
       </c>
       <c r="B584" t="n">
         <v>7095.833</v>
@@ -18525,7 +18525,7 @@
     </row>
     <row r="585" spans="1:9">
       <c r="A585" t="n">
-        <v>583.033</v>
+        <v>583</v>
       </c>
       <c r="B585" t="n">
         <v>7131.111</v>
@@ -18554,7 +18554,7 @@
     </row>
     <row r="586" spans="1:9">
       <c r="A586" t="n">
-        <v>584.033</v>
+        <v>584</v>
       </c>
       <c r="B586" t="n">
         <v>7166.944</v>
@@ -18583,7 +18583,7 @@
     </row>
     <row r="587" spans="1:9">
       <c r="A587" t="n">
-        <v>585.033</v>
+        <v>585</v>
       </c>
       <c r="B587" t="n">
         <v>7204.444</v>
@@ -18612,7 +18612,7 @@
     </row>
     <row r="588" spans="1:9">
       <c r="A588" t="n">
-        <v>586.033</v>
+        <v>586</v>
       </c>
       <c r="B588" t="n">
         <v>7242.222</v>
@@ -18641,7 +18641,7 @@
     </row>
     <row r="589" spans="1:9">
       <c r="A589" t="n">
-        <v>587.033</v>
+        <v>587</v>
       </c>
       <c r="B589" t="n">
         <v>7278.055</v>
@@ -18670,7 +18670,7 @@
     </row>
     <row r="590" spans="1:9">
       <c r="A590" t="n">
-        <v>588.033</v>
+        <v>588</v>
       </c>
       <c r="B590" t="n">
         <v>7317.777</v>
@@ -18699,7 +18699,7 @@
     </row>
     <row r="591" spans="1:9">
       <c r="A591" t="n">
-        <v>589.033</v>
+        <v>589</v>
       </c>
       <c r="B591" t="n">
         <v>7355.555</v>
@@ -18728,7 +18728,7 @@
     </row>
     <row r="592" spans="1:9">
       <c r="A592" t="n">
-        <v>590.033</v>
+        <v>590</v>
       </c>
       <c r="B592" t="n">
         <v>7393.333</v>
@@ -18757,7 +18757,7 @@
     </row>
     <row r="593" spans="1:9">
       <c r="A593" t="n">
-        <v>591.033</v>
+        <v>591</v>
       </c>
       <c r="B593" t="n">
         <v>7433.333</v>
@@ -18786,7 +18786,7 @@
     </row>
     <row r="594" spans="1:9">
       <c r="A594" t="n">
-        <v>592.033</v>
+        <v>592</v>
       </c>
       <c r="B594" t="n">
         <v>7473.055</v>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="595" spans="1:9">
       <c r="A595" t="n">
-        <v>593.033</v>
+        <v>593</v>
       </c>
       <c r="B595" t="n">
         <v>7510.833</v>
@@ -18844,7 +18844,7 @@
     </row>
     <row r="596" spans="1:9">
       <c r="A596" t="n">
-        <v>594.033</v>
+        <v>594</v>
       </c>
       <c r="B596" t="n">
         <v>7525.972</v>
@@ -18873,7 +18873,7 @@
     </row>
     <row r="597" spans="1:9">
       <c r="A597" t="n">
-        <v>595.033</v>
+        <v>595</v>
       </c>
       <c r="B597" t="n">
         <v>7529.305</v>
@@ -18902,7 +18902,7 @@
     </row>
     <row r="598" spans="1:9">
       <c r="A598" t="n">
-        <v>596.033</v>
+        <v>596</v>
       </c>
       <c r="B598" t="n">
         <v>7530.046</v>
@@ -18931,7 +18931,7 @@
     </row>
     <row r="599" spans="1:9">
       <c r="A599" t="n">
-        <v>597.033</v>
+        <v>597</v>
       </c>
       <c r="B599" t="n">
         <v>7530.244</v>
@@ -18960,7 +18960,7 @@
     </row>
     <row r="600" spans="1:9">
       <c r="A600" t="n">
-        <v>598.033</v>
+        <v>598</v>
       </c>
       <c r="B600" t="n">
         <v>7530.255</v>
@@ -18989,7 +18989,7 @@
     </row>
     <row r="601" spans="1:9">
       <c r="A601" t="n">
-        <v>599.033</v>
+        <v>599</v>
       </c>
       <c r="B601" t="n">
         <v>7530.228</v>
@@ -19018,7 +19018,7 @@
     </row>
     <row r="602" spans="1:9">
       <c r="A602" t="n">
-        <v>600.033</v>
+        <v>600</v>
       </c>
       <c r="B602" t="n">
         <v>7530.202</v>
@@ -19047,7 +19047,7 @@
     </row>
     <row r="603" spans="1:9">
       <c r="A603" t="n">
-        <v>601.033</v>
+        <v>601</v>
       </c>
       <c r="B603" t="n">
         <v>7530.175</v>
@@ -19076,7 +19076,7 @@
     </row>
     <row r="604" spans="1:9">
       <c r="A604" t="n">
-        <v>602.033</v>
+        <v>602</v>
       </c>
       <c r="B604" t="n">
         <v>7530.149</v>
@@ -19105,7 +19105,7 @@
     </row>
     <row r="605" spans="1:9">
       <c r="A605" t="n">
-        <v>603.033</v>
+        <v>603</v>
       </c>
       <c r="B605" t="n">
         <v>7530.122</v>
@@ -19134,7 +19134,7 @@
     </row>
     <row r="606" spans="1:9">
       <c r="A606" t="n">
-        <v>604.033</v>
+        <v>604</v>
       </c>
       <c r="B606" t="n">
         <v>7530.096</v>
@@ -19163,7 +19163,7 @@
     </row>
     <row r="607" spans="1:9">
       <c r="A607" t="n">
-        <v>605.033</v>
+        <v>605</v>
       </c>
       <c r="B607" t="n">
         <v>7530.069</v>
